--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram2.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram2.xlsx
@@ -593,85 +593,85 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.5489733301864532E-3</v>
+        <v>2.463509568602011E-3</v>
       </c>
       <c r="D2">
-        <v>6.2662261033750296E-3</v>
+        <v>6.7580278949075584E-3</v>
       </c>
       <c r="E2">
-        <v>1.3880103847061599E-2</v>
+        <v>1.675640609795654E-2</v>
       </c>
       <c r="F2">
-        <v>4.5291479820627799E-3</v>
+        <v>3.689588063574441E-3</v>
       </c>
       <c r="G2">
-        <v>6.1907009676658012E-3</v>
+        <v>7.5024326954265322E-3</v>
       </c>
       <c r="H2">
-        <v>2.0887420344583431E-3</v>
+        <v>4.1388258190074604E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.7772008496577769E-3</v>
+        <v>2.1959130716834251E-3</v>
       </c>
       <c r="K2">
-        <v>4.3497757847533632E-3</v>
+        <v>4.3026273110606554E-3</v>
       </c>
       <c r="L2">
-        <v>8.9544489025253724E-3</v>
+        <v>1.153908530651962E-2</v>
       </c>
       <c r="M2">
-        <v>1.416096294548029E-5</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>8.4399339155062543E-3</v>
+        <v>9.043139798897178E-3</v>
       </c>
       <c r="O2">
-        <v>2.2492329478404531E-3</v>
+        <v>2.666234187479727E-3</v>
       </c>
       <c r="P2">
-        <v>6.3323105971206054E-3</v>
+        <v>6.1628284138825823E-3</v>
       </c>
       <c r="Q2">
-        <v>1.161907009676658E-2</v>
+        <v>1.611903989620499E-2</v>
       </c>
       <c r="R2">
-        <v>8.9096058531980167E-3</v>
+        <v>1.022542977619202E-2</v>
       </c>
       <c r="S2">
-        <v>1.5673825820155769E-2</v>
+        <v>1.487674343172235E-2</v>
       </c>
       <c r="T2">
-        <v>4.3686570686806703E-3</v>
+        <v>3.673370094064223E-3</v>
       </c>
       <c r="U2">
-        <v>1.442294075997168E-2</v>
+        <v>1.527894907557574E-2</v>
       </c>
       <c r="V2">
-        <v>5.9381637951380697E-3</v>
+        <v>8.3895556276354193E-3</v>
       </c>
       <c r="W2">
-        <v>3.639367476988435E-3</v>
+        <v>4.7324035030814138E-3</v>
       </c>
       <c r="X2">
-        <v>9.8418692471088031E-4</v>
+        <v>8.5468699318845282E-4</v>
       </c>
       <c r="Y2">
-        <v>1.14467783809299E-3</v>
+        <v>1.4807006162828411E-3</v>
       </c>
       <c r="Z2">
-        <v>5.2159546849185742E-4</v>
+        <v>2.8219266947778138E-4</v>
       </c>
       <c r="AA2">
-        <v>3.2121784281331132E-3</v>
+        <v>6.6023353876094714E-3</v>
       </c>
       <c r="AB2">
-        <v>1.14467783809299E-3</v>
+        <v>5.7573791761271486E-4</v>
       </c>
       <c r="AC2">
-        <v>1.014869011092754E-4</v>
+        <v>9.2442426208238726E-5</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.6851545905121549E-3</v>
+        <v>2.8527408368472268E-3</v>
       </c>
       <c r="AH2">
-        <v>9.4406419636535282E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="AI2">
-        <v>9.8418692471088031E-4</v>
+        <v>2.9938371715861169E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -697,88 +697,88 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.5492093462355441E-2</v>
+        <v>1.5744404800518971E-2</v>
       </c>
       <c r="C3">
-        <v>8.0245456691054997E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="D3">
-        <v>8.2369601132877034E-4</v>
+        <v>3.5517353227375933E-4</v>
       </c>
       <c r="E3">
-        <v>3.41279206986075E-3</v>
+        <v>3.2825170288679861E-3</v>
       </c>
       <c r="F3">
-        <v>8.2841633231059712E-4</v>
+        <v>9.3415504378851772E-4</v>
       </c>
       <c r="G3">
-        <v>2.0273778616945949E-3</v>
+        <v>1.775867661368797E-3</v>
       </c>
       <c r="H3">
-        <v>1.012508850601841E-3</v>
+        <v>1.2958157638663639E-3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="J3">
-        <v>1.13759735662025E-3</v>
+        <v>1.8439831333117091E-3</v>
       </c>
       <c r="K3">
-        <v>2.8015105027141851E-3</v>
+        <v>3.1949399935128119E-3</v>
       </c>
       <c r="L3">
-        <v>2.1713476516403119E-4</v>
+        <v>3.1462860849821602E-4</v>
       </c>
       <c r="M3">
-        <v>7.6233183856502242E-4</v>
+        <v>7.9143691209860526E-4</v>
       </c>
       <c r="N3">
-        <v>3.4269530328062312E-3</v>
+        <v>5.2448913396042811E-3</v>
       </c>
       <c r="O3">
-        <v>8.1496341751239078E-3</v>
+        <v>7.8267920856308782E-3</v>
       </c>
       <c r="P3">
-        <v>3.2735426008968609E-3</v>
+        <v>3.1657476483944211E-3</v>
       </c>
       <c r="Q3">
-        <v>5.1003068208638194E-3</v>
+        <v>3.2208887447291602E-3</v>
       </c>
       <c r="R3">
-        <v>4.2482888836440868E-5</v>
+        <v>2.432695426532598E-5</v>
       </c>
       <c r="S3">
-        <v>1.6804342695303279E-3</v>
+        <v>6.8439831333117092E-4</v>
       </c>
       <c r="T3">
-        <v>3.7904177484068911E-3</v>
+        <v>1.8310087577035361E-3</v>
       </c>
       <c r="U3">
-        <v>3.8258201557705919E-3</v>
+        <v>5.0664936749918914E-3</v>
       </c>
       <c r="V3">
-        <v>5.4448902525371726E-3</v>
+        <v>3.7804086928316569E-3</v>
       </c>
       <c r="W3">
-        <v>1.982534812367241E-4</v>
+        <v>5.3519299383717158E-5</v>
       </c>
       <c r="X3">
-        <v>3.1390134529147982E-4</v>
+        <v>1.556925072980863E-4</v>
       </c>
       <c r="Y3">
-        <v>1.3405711588388011E-3</v>
+        <v>7.9954589685371394E-4</v>
       </c>
       <c r="Z3">
-        <v>4.3426953032806232E-4</v>
+        <v>3.0814142069412909E-5</v>
       </c>
       <c r="AA3">
-        <v>8.6853906065612464E-4</v>
+        <v>8.1089847551086603E-4</v>
       </c>
       <c r="AB3">
-        <v>8.7561954212886481E-4</v>
+        <v>9.7307817061303926E-4</v>
       </c>
       <c r="AC3">
-        <v>2.4545669105499168E-4</v>
+        <v>1.962374310736296E-4</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.832192589096059E-5</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.0420108567382585E-4</v>
+        <v>9.0982808952319171E-4</v>
       </c>
       <c r="AI3">
-        <v>2.145385886240264E-3</v>
+        <v>1.865066493674992E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -804,106 +804,106 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.4309653056407839E-4</v>
+        <v>3.8436587739215048E-4</v>
       </c>
       <c r="C4">
-        <v>1.059712060420109E-3</v>
+        <v>5.4654557249432371E-4</v>
       </c>
       <c r="D4">
-        <v>1.8881283927307061E-5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.6643851781921173E-5</v>
+        <v>4.7032111579630233E-5</v>
       </c>
       <c r="F4">
-        <v>7.0804814727401466E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="G4">
-        <v>1.180080245456691E-5</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="H4">
-        <v>2.1383054047675238E-3</v>
+        <v>2.3921505027570552E-3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.360160490913382E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="K4">
-        <v>1.180080245456691E-5</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.6617890016521125E-4</v>
+        <v>5.8709049626986696E-4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.0245456691054997E-5</v>
+        <v>8.4333441453130067E-5</v>
       </c>
       <c r="O4">
-        <v>1.021949492565495E-3</v>
+        <v>6.7628932857606225E-4</v>
       </c>
       <c r="P4">
-        <v>3.0682086381873973E-5</v>
+        <v>4.54103146286085E-5</v>
       </c>
       <c r="Q4">
-        <v>2.9265990087325942E-4</v>
+        <v>2.3029516704508601E-4</v>
       </c>
       <c r="R4">
-        <v>2.022657540712769E-3</v>
+        <v>1.8293869607525139E-3</v>
       </c>
       <c r="S4">
-        <v>1.416096294548029E-5</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.3334906773660609E-3</v>
+        <v>9.1144988647421342E-4</v>
       </c>
       <c r="U4">
-        <v>1.8409251829124381E-4</v>
+        <v>1.8326305546545571E-4</v>
       </c>
       <c r="V4">
-        <v>1.180080245456691E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="W4">
-        <v>1.057351899929195E-3</v>
+        <v>1.2163477132662991E-3</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.0682086381873973E-5</v>
+        <v>2.432695426532598E-5</v>
       </c>
       <c r="Z4">
-        <v>1.416096294548029E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AA4">
-        <v>1.6521123436393671E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="AB4">
-        <v>3.0682086381873973E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AC4">
-        <v>2.7141845645503902E-4</v>
+        <v>1.81641258514434E-4</v>
       </c>
       <c r="AD4">
-        <v>1.4396978994571629E-4</v>
+        <v>1.6704508595523839E-4</v>
       </c>
       <c r="AE4">
-        <v>2.619778144913854E-3</v>
+        <v>3.9425883879338304E-3</v>
       </c>
       <c r="AF4">
-        <v>3.3042246872787349E-4</v>
+        <v>3.5679532922478108E-5</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>6.1364172763747932E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AI4">
-        <v>1.9353316025489729E-4</v>
+        <v>4.7843010055141101E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -911,106 +911,106 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.8963889544489034E-3</v>
+        <v>5.1978592280246512E-3</v>
       </c>
       <c r="C5">
-        <v>6.648572102902997E-3</v>
+        <v>5.8709049626986696E-3</v>
       </c>
       <c r="D5">
-        <v>3.0682086381873973E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="E5">
-        <v>5.1923530800094407E-5</v>
+        <v>4.3788517677586773E-5</v>
       </c>
       <c r="F5">
-        <v>4.7203209818267641E-5</v>
+        <v>1.7677586766136881E-4</v>
       </c>
       <c r="G5">
-        <v>3.0210054283691292E-4</v>
+        <v>7.3467401881284467E-4</v>
       </c>
       <c r="H5">
-        <v>5.5251357092282278E-3</v>
+        <v>5.410314628608498E-3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.7849893792777908E-4</v>
+        <v>4.1680181641258522E-4</v>
       </c>
       <c r="L5">
-        <v>3.431673353788058E-3</v>
+        <v>3.167369445345443E-3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.059476044371017E-4</v>
+        <v>1.248783652286734E-4</v>
       </c>
       <c r="O5">
-        <v>8.9214066556525843E-4</v>
+        <v>9.0496269867012646E-4</v>
       </c>
       <c r="P5">
-        <v>9.6766580127448672E-5</v>
+        <v>9.4064223159260466E-5</v>
       </c>
       <c r="Q5">
-        <v>1.0809535048383291E-3</v>
+        <v>1.6185533571196891E-3</v>
       </c>
       <c r="R5">
-        <v>6.5305640783573284E-3</v>
+        <v>6.0055141096334742E-3</v>
       </c>
       <c r="S5">
-        <v>1.7465187632759031E-4</v>
+        <v>4.2166720726565042E-4</v>
       </c>
       <c r="T5">
-        <v>5.9712060420108568E-4</v>
+        <v>5.6438533895556277E-4</v>
       </c>
       <c r="U5">
-        <v>1.885768232239792E-3</v>
+        <v>3.7641907233214398E-3</v>
       </c>
       <c r="V5">
-        <v>4.5551097474628272E-4</v>
+        <v>1.9461563412260781E-4</v>
       </c>
       <c r="W5">
-        <v>7.2456927071040829E-4</v>
+        <v>4.8167369445345439E-4</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.156478640547557E-4</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="Z5">
-        <v>7.3164975218314841E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="AA5">
-        <v>6.6084493745574699E-5</v>
+        <v>1.2325656827765161E-4</v>
       </c>
       <c r="AB5">
-        <v>9.5114467783809296E-4</v>
+        <v>6.9412909503730131E-4</v>
       </c>
       <c r="AC5">
-        <v>9.4406419636535288E-6</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AE5">
-        <v>2.933679490205334E-3</v>
+        <v>3.1138501459617249E-3</v>
       </c>
       <c r="AF5">
-        <v>9.4406419636535282E-5</v>
+        <v>1.200129743756082E-4</v>
       </c>
       <c r="AG5">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.6433797498229879E-4</v>
+        <v>1.5244891339604279E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1018,25 +1018,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.4371017229171583E-4</v>
+        <v>9.4712941939669153E-4</v>
       </c>
       <c r="C6">
-        <v>1.666273306584848E-3</v>
+        <v>1.112552708400908E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.59617654000472E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="F6">
-        <v>7.0804814727401466E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="G6">
-        <v>7.1276846825584135E-4</v>
+        <v>1.050924424262082E-3</v>
       </c>
       <c r="H6">
-        <v>4.1066792541892848E-4</v>
+        <v>7.8819331819656184E-4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1048,43 +1048,43 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.6469199905593581E-4</v>
+        <v>5.0275705481673692E-4</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.368893084729761E-4</v>
+        <v>2.9192345118391179E-5</v>
       </c>
       <c r="O6">
-        <v>1.0809535048383291E-3</v>
+        <v>1.6509892961401229E-3</v>
       </c>
       <c r="P6">
-        <v>1.8881283927307061E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="Q6">
-        <v>2.0061364172763751E-4</v>
+        <v>2.0921180668180339E-4</v>
       </c>
       <c r="R6">
-        <v>7.1725277318857679E-3</v>
+        <v>8.2225105416801822E-3</v>
       </c>
       <c r="S6">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.3665329242388479E-3</v>
+        <v>5.2221861822899769E-4</v>
       </c>
       <c r="U6">
-        <v>4.9563370309181017E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="V6">
-        <v>1.416096294548029E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="W6">
-        <v>7.0332782629218789E-4</v>
+        <v>3.9571845604930258E-4</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1.180080245456691E-5</v>
+        <v>2.7570548167369449E-5</v>
       </c>
       <c r="AB6">
-        <v>4.7203209818267636E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1125,106 +1125,106 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.050271418456455E-3</v>
+        <v>7.8494972429451831E-4</v>
       </c>
       <c r="C7">
-        <v>4.5220675005900402E-3</v>
+        <v>5.3811222834901067E-3</v>
       </c>
       <c r="D7">
-        <v>4.2482888836440868E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="E7">
-        <v>1.1187160726929431E-3</v>
+        <v>6.6655854686993186E-4</v>
       </c>
       <c r="F7">
-        <v>1.8881283927307061E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="G7">
-        <v>4.4843049327354258E-5</v>
+        <v>2.5948751216347709E-5</v>
       </c>
       <c r="H7">
-        <v>4.9516167099362754E-3</v>
+        <v>4.4323710671423941E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.9686098654708516E-5</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="K7">
-        <v>2.832192589096059E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="L7">
-        <v>2.4097238612225632E-3</v>
+        <v>2.2283490107038598E-3</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.9265990087325942E-4</v>
+        <v>2.4813493350632498E-4</v>
       </c>
       <c r="O7">
-        <v>5.711588388010385E-4</v>
+        <v>5.7411612066169315E-4</v>
       </c>
       <c r="P7">
-        <v>1.1328770356384231E-4</v>
+        <v>4.7032111579630233E-5</v>
       </c>
       <c r="Q7">
-        <v>1.720556997875856E-3</v>
+        <v>1.876419072332144E-3</v>
       </c>
       <c r="R7">
-        <v>3.7054519707340099E-3</v>
+        <v>3.8533895556276359E-3</v>
       </c>
       <c r="S7">
-        <v>1.9117299976398401E-4</v>
+        <v>8.2711644502108341E-5</v>
       </c>
       <c r="T7">
-        <v>8.9214066556525843E-4</v>
+        <v>1.553681479078819E-3</v>
       </c>
       <c r="U7">
-        <v>5.475572338919046E-4</v>
+        <v>2.4813493350632498E-4</v>
       </c>
       <c r="V7">
-        <v>8.7325938163795139E-5</v>
+        <v>2.0434641582873819E-4</v>
       </c>
       <c r="W7">
-        <v>1.59074817087562E-3</v>
+        <v>1.501783976646124E-3</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="Y7">
-        <v>5.1923530800094407E-5</v>
+        <v>6.811547194291275E-5</v>
       </c>
       <c r="Z7">
-        <v>3.6110455510974751E-4</v>
+        <v>3.2760298410638988E-4</v>
       </c>
       <c r="AA7">
-        <v>3.5402407363700732E-5</v>
+        <v>5.5141096334738892E-5</v>
       </c>
       <c r="AB7">
-        <v>7.3164975218314841E-5</v>
+        <v>6.4871878040869283E-5</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>2.59617654000472E-5</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>6.1128156714656602E-4</v>
+        <v>4.7356470969834582E-4</v>
       </c>
       <c r="AF7">
-        <v>3.3514278970970033E-4</v>
+        <v>8.7414855660071359E-4</v>
       </c>
       <c r="AG7">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>3.3042246872787349E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AI7">
-        <v>3.3750295020061372E-4</v>
+        <v>2.4489133960428161E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1232,88 +1232,88 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.4670757611517579E-2</v>
+        <v>1.8618228997729479E-2</v>
       </c>
       <c r="C8">
-        <v>2.147746046731178E-4</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="D8">
-        <v>9.0630162851073877E-4</v>
+        <v>1.456373662017515E-3</v>
       </c>
       <c r="E8">
-        <v>2.6599008732593821E-3</v>
+        <v>2.0434641582873819E-3</v>
       </c>
       <c r="F8">
-        <v>2.2468727873495402E-3</v>
+        <v>3.2208887447291602E-3</v>
       </c>
       <c r="G8">
-        <v>2.9856030210054282E-3</v>
+        <v>2.8786895880635751E-3</v>
       </c>
       <c r="H8">
-        <v>1.5836676894028789E-3</v>
+        <v>1.5374635095686019E-3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.7238612225631347E-4</v>
+        <v>6.9737268893934484E-4</v>
       </c>
       <c r="K8">
-        <v>1.229643615765872E-3</v>
+        <v>1.31041193642556E-3</v>
       </c>
       <c r="L8">
-        <v>1.7465187632759031E-4</v>
+        <v>1.200129743756082E-4</v>
       </c>
       <c r="M8">
-        <v>2.1312249232947841E-3</v>
+        <v>2.1521245540058391E-3</v>
       </c>
       <c r="N8">
-        <v>1.4703799858390371E-3</v>
+        <v>1.31041193642556E-3</v>
       </c>
       <c r="O8">
-        <v>5.7682322397923057E-3</v>
+        <v>5.1362309438858257E-3</v>
       </c>
       <c r="P8">
-        <v>3.1578947368421052E-3</v>
+        <v>4.2977619202075896E-3</v>
       </c>
       <c r="Q8">
-        <v>7.7271654472504132E-3</v>
+        <v>7.5948751216347709E-3</v>
       </c>
       <c r="R8">
-        <v>2.9502006136417281E-4</v>
+        <v>2.5948751216347708E-4</v>
       </c>
       <c r="S8">
-        <v>7.4581071512862869E-4</v>
+        <v>1.308790139474538E-3</v>
       </c>
       <c r="T8">
-        <v>6.4408779797026196E-3</v>
+        <v>5.9487512163477136E-3</v>
       </c>
       <c r="U8">
-        <v>4.7580835496813783E-3</v>
+        <v>4.200454103146286E-3</v>
       </c>
       <c r="V8">
-        <v>4.9563370309181022E-3</v>
+        <v>5.7752189425883879E-3</v>
       </c>
       <c r="W8">
-        <v>2.0297380221855079E-4</v>
+        <v>1.15147583522543E-4</v>
       </c>
       <c r="X8">
-        <v>6.8444654236488075E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="Y8">
-        <v>5.9004012272834551E-4</v>
+        <v>5.4654557249432371E-4</v>
       </c>
       <c r="Z8">
-        <v>5.2867594996459759E-4</v>
+        <v>3.5192993837171579E-4</v>
       </c>
       <c r="AA8">
-        <v>1.010148690110928E-3</v>
+        <v>1.243918261433668E-3</v>
       </c>
       <c r="AB8">
-        <v>5.7823932027377867E-4</v>
+        <v>8.9198832306195265E-4</v>
       </c>
       <c r="AC8">
-        <v>6.1600188812839269E-4</v>
+        <v>8.2225105416801813E-4</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>1.062072220911022E-4</v>
+        <v>2.5462212131041189E-4</v>
       </c>
       <c r="AI8">
-        <v>1.7465187632759031E-4</v>
+        <v>3.1138501459617248E-4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6.5844956211482319E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1446,70 +1446,70 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.0533396270946421E-4</v>
+        <v>4.9464807006162825E-4</v>
       </c>
       <c r="C10">
-        <v>1.27684682558414E-3</v>
+        <v>1.2990593577684071E-3</v>
       </c>
       <c r="D10">
-        <v>5.1923530800094407E-5</v>
+        <v>4.7032111579630233E-5</v>
       </c>
       <c r="E10">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.180080245456691E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="G10">
-        <v>7.8593344347415621E-4</v>
+        <v>7.9954589685371394E-4</v>
       </c>
       <c r="H10">
-        <v>2.9714420580599478E-3</v>
+        <v>4.805384365877392E-3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="J10">
-        <v>9.4406419636535288E-6</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.406655652584376E-3</v>
+        <v>1.334738890690885E-3</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.9353316025489729E-4</v>
+        <v>4.8653908530651959E-5</v>
       </c>
       <c r="O10">
-        <v>1.8881283927307061E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="P10">
-        <v>9.4406419636535288E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Q10">
-        <v>8.9686098654708521E-4</v>
+        <v>7.0710347064547522E-4</v>
       </c>
       <c r="R10">
-        <v>6.3724333254661322E-5</v>
+        <v>2.7570548167369449E-5</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="U10">
-        <v>3.0682086381873973E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="W10">
-        <v>2.8085909841869252E-4</v>
+        <v>2.1407719753486861E-4</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>3.5402407363700732E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.832192589096059E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1553,70 +1553,70 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.31224923294784E-3</v>
+        <v>1.268245215698995E-3</v>
       </c>
       <c r="C11">
-        <v>4.9681378333726704E-3</v>
+        <v>4.7372688939344796E-3</v>
       </c>
       <c r="D11">
-        <v>1.2508850601840931E-4</v>
+        <v>1.021732079143691E-4</v>
       </c>
       <c r="E11">
-        <v>9.3226339391078595E-4</v>
+        <v>9.2280246513136552E-4</v>
       </c>
       <c r="F11">
-        <v>1.9117299976398401E-4</v>
+        <v>3.584171261758028E-4</v>
       </c>
       <c r="G11">
-        <v>8.9450082605617182E-4</v>
+        <v>6.5844956211482319E-4</v>
       </c>
       <c r="H11">
-        <v>5.924002832192589E-4</v>
+        <v>2.3191696399610769E-4</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.014869011092754E-4</v>
+        <v>6.0006487187804077E-5</v>
       </c>
       <c r="K11">
-        <v>4.4843049327354258E-5</v>
+        <v>5.0275705481673692E-5</v>
       </c>
       <c r="L11">
-        <v>6.8444654236488078E-4</v>
+        <v>3.4868634446967242E-4</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.486901109275431E-4</v>
+        <v>1.054168018164126E-4</v>
       </c>
       <c r="O11">
-        <v>2.0533396270946421E-4</v>
+        <v>2.3516055789815109E-4</v>
       </c>
       <c r="P11">
-        <v>3.4458343167335378E-4</v>
+        <v>2.72461887771651E-4</v>
       </c>
       <c r="Q11">
-        <v>1.392494689638895E-3</v>
+        <v>1.9007460265974699E-3</v>
       </c>
       <c r="R11">
-        <v>8.6145857918338447E-4</v>
+        <v>4.2166720726565042E-4</v>
       </c>
       <c r="S11">
-        <v>2.59617654000472E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="T11">
-        <v>2.3129572810951139E-4</v>
+        <v>1.8650664936749919E-4</v>
       </c>
       <c r="U11">
-        <v>5.9004012272834549E-5</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="V11">
-        <v>9.4406419636535288E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="W11">
-        <v>3.3514278970970033E-4</v>
+        <v>2.4489133960428161E-4</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1625,34 +1625,34 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.180080245456691E-5</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>5.9004012272834549E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="AB11">
-        <v>4.7203209818267636E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>1.8881283927307061E-5</v>
+        <v>2.7570548167369449E-5</v>
       </c>
       <c r="AE11">
-        <v>4.4135001180080238E-4</v>
+        <v>2.9516704508595519E-4</v>
       </c>
       <c r="AF11">
-        <v>8.9686098654708516E-5</v>
+        <v>1.3266299059357771E-3</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.5731430424910801E-4</v>
       </c>
       <c r="AI11">
-        <v>2.0533396270946421E-4</v>
+        <v>5.4005838469023675E-4</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1660,88 +1660,88 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.595468491857446E-2</v>
+        <v>1.7302951670450858E-2</v>
       </c>
       <c r="C12">
-        <v>4.9563370309181024E-4</v>
+        <v>7.2980862795977942E-5</v>
       </c>
       <c r="D12">
-        <v>3.6110455510974751E-4</v>
+        <v>5.8060330846578011E-4</v>
       </c>
       <c r="E12">
-        <v>2.1925890960585318E-3</v>
+        <v>2.2121310411936431E-3</v>
       </c>
       <c r="F12">
-        <v>6.5612461647392021E-4</v>
+        <v>3.8274408044112882E-4</v>
       </c>
       <c r="G12">
-        <v>1.496341751239084E-3</v>
+        <v>1.4807006162828411E-3</v>
       </c>
       <c r="H12">
-        <v>2.338919046495162E-3</v>
+        <v>1.6931560168666881E-3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.0210054283691292E-4</v>
+        <v>2.1407719753486861E-4</v>
       </c>
       <c r="K12">
-        <v>2.3483596884588151E-3</v>
+        <v>1.8066818034382091E-3</v>
       </c>
       <c r="L12">
-        <v>1.13051687514751E-3</v>
+        <v>5.7087252675964973E-4</v>
       </c>
       <c r="M12">
-        <v>1.711116355912202E-3</v>
+        <v>1.0298410638988E-3</v>
       </c>
       <c r="N12">
-        <v>2.9572810951144679E-3</v>
+        <v>1.410963347388907E-3</v>
       </c>
       <c r="O12">
-        <v>4.5338683030446067E-3</v>
+        <v>5.2740836847226724E-3</v>
       </c>
       <c r="P12">
-        <v>2.511210762331839E-3</v>
+        <v>2.362958157638663E-3</v>
       </c>
       <c r="Q12">
-        <v>4.243568562662261E-3</v>
+        <v>3.1835874148556601E-3</v>
       </c>
       <c r="R12">
-        <v>6.2544253009204625E-4</v>
+        <v>3.0814142069412911E-4</v>
       </c>
       <c r="S12">
-        <v>1.0243096530564079E-3</v>
+        <v>6.8764190723321445E-4</v>
       </c>
       <c r="T12">
-        <v>1.5081425536936509E-3</v>
+        <v>4.0707103470645468E-4</v>
       </c>
       <c r="U12">
-        <v>3.69129100778853E-3</v>
+        <v>2.0904962698670131E-3</v>
       </c>
       <c r="V12">
-        <v>4.526787821571867E-3</v>
+        <v>4.3074927019137203E-3</v>
       </c>
       <c r="W12">
-        <v>6.8444654236488075E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="X12">
-        <v>1.321689874911494E-4</v>
+        <v>2.9192345118391179E-5</v>
       </c>
       <c r="Y12">
-        <v>1.552985603021006E-3</v>
+        <v>1.2422964644826469E-3</v>
       </c>
       <c r="Z12">
-        <v>1.0479112579655421E-3</v>
+        <v>7.1683425235160561E-4</v>
       </c>
       <c r="AA12">
-        <v>2.5041302808590979E-3</v>
+        <v>1.5909828089523191E-3</v>
       </c>
       <c r="AB12">
-        <v>4.4371017229171583E-4</v>
+        <v>5.7411612066169315E-4</v>
       </c>
       <c r="AC12">
-        <v>3.280623082369601E-4</v>
+        <v>1.2974375608173859E-4</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.416096294548029E-5</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>4.3426953032806232E-4</v>
+        <v>2.3678235484917291E-4</v>
       </c>
       <c r="AI12">
-        <v>1.522303516639131E-3</v>
+        <v>1.12390528705806E-3</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1767,88 +1767,88 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.3006844465423647E-3</v>
+        <v>5.8773921505027573E-3</v>
       </c>
       <c r="C13">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="D13">
-        <v>2.59617654000472E-5</v>
+        <v>3.0814142069412909E-5</v>
       </c>
       <c r="E13">
-        <v>1.180080245456691E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="F13">
-        <v>2.360160490913382E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="G13">
-        <v>1.2744866650932259E-4</v>
+        <v>2.2867337009406421E-4</v>
       </c>
       <c r="H13">
-        <v>2.59617654000472E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.8881283927307061E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="L13">
-        <v>1.8881283927307061E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.6521123436393669E-4</v>
+        <v>7.2980862795977942E-5</v>
       </c>
       <c r="O13">
-        <v>9.2046259145621905E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="P13">
-        <v>8.7325938163795139E-5</v>
+        <v>3.4057735971456368E-5</v>
       </c>
       <c r="Q13">
-        <v>4.1774840689166859E-4</v>
+        <v>4.8167369445345439E-4</v>
       </c>
       <c r="R13">
-        <v>4.7203209818267641E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="S13">
-        <v>2.59617654000472E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>6.5376445598300682E-4</v>
+        <v>5.0924424262082388E-4</v>
       </c>
       <c r="V13">
-        <v>3.7054519707340101E-4</v>
+        <v>3.7787868958806358E-4</v>
       </c>
       <c r="W13">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1.416096294548029E-5</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>7.0804814727401466E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="Z13">
-        <v>5.428369129100779E-5</v>
+        <v>6.4871878040869283E-5</v>
       </c>
       <c r="AA13">
-        <v>1.5577059240028319E-4</v>
+        <v>1.7839766461239049E-4</v>
       </c>
       <c r="AB13">
-        <v>1.180080245456691E-4</v>
+        <v>2.011028219266948E-4</v>
       </c>
       <c r="AC13">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1860,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1874,85 +1874,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.766816143497758E-3</v>
+        <v>4.641582873824197E-3</v>
       </c>
       <c r="C14">
-        <v>6.518763275902761E-3</v>
+        <v>6.1903989620499516E-3</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.847061600188813E-4</v>
+        <v>1.508271164450211E-4</v>
       </c>
       <c r="F14">
-        <v>1.8881283927307061E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="G14">
-        <v>1.416096294548029E-5</v>
+        <v>3.0814142069412909E-5</v>
       </c>
       <c r="H14">
-        <v>7.2692943120132168E-4</v>
+        <v>4.8978267920856311E-4</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.0122728345527498E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="K14">
-        <v>8.9686098654708516E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="L14">
-        <v>4.1420816615529857E-3</v>
+        <v>1.8618228997729479E-3</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.0122728345527498E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="O14">
-        <v>8.9450082605617182E-4</v>
+        <v>4.6221213104119372E-4</v>
       </c>
       <c r="P14">
-        <v>2.1241444418220441E-5</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>3.9178664149162141E-4</v>
+        <v>2.278624716185534E-3</v>
       </c>
       <c r="R14">
-        <v>9.0700967665801272E-3</v>
+        <v>7.6646123905287061E-3</v>
       </c>
       <c r="S14">
-        <v>3.0682086381873973E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="T14">
-        <v>1.843285343403351E-3</v>
+        <v>1.419072332144016E-3</v>
       </c>
       <c r="U14">
-        <v>3.3750295020061372E-4</v>
+        <v>2.9354524813493348E-4</v>
       </c>
       <c r="V14">
-        <v>7.3400991267406185E-4</v>
+        <v>4.7843010055141101E-4</v>
       </c>
       <c r="W14">
-        <v>1.7890016521123441E-3</v>
+        <v>1.0168666882906261E-3</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Z14">
-        <v>2.5489733301864529E-4</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="AA14">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1.416096294548029E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1964,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="AG14">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -1981,106 +1981,106 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.5706868067028556E-3</v>
+        <v>6.8747972753811226E-3</v>
       </c>
       <c r="C15">
-        <v>5.1427897097002604E-3</v>
+        <v>5.6325008108984746E-3</v>
       </c>
       <c r="D15">
-        <v>4.4843049327354258E-5</v>
+        <v>3.4057735971456368E-5</v>
       </c>
       <c r="E15">
-        <v>3.0682086381873973E-5</v>
+        <v>2.9192345118391179E-5</v>
       </c>
       <c r="F15">
-        <v>1.7229171583667689E-4</v>
+        <v>1.81641258514434E-4</v>
       </c>
       <c r="G15">
-        <v>7.3164975218314841E-5</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="H15">
-        <v>4.7911257965541658E-3</v>
+        <v>3.631203373337658E-3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="J15">
-        <v>2.3129572810951139E-4</v>
+        <v>2.9516704508595519E-4</v>
       </c>
       <c r="K15">
-        <v>2.1241444418220441E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="L15">
-        <v>7.7177248052867596E-3</v>
+        <v>6.4385338955562756E-3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.263157894736842E-4</v>
+        <v>2.270515731430425E-4</v>
       </c>
       <c r="O15">
-        <v>3.4930375265518061E-4</v>
+        <v>1.3785274083684721E-4</v>
       </c>
       <c r="P15">
-        <v>1.416096294548029E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="Q15">
-        <v>3.7526551805522768E-4</v>
+        <v>2.335387609471294E-4</v>
       </c>
       <c r="R15">
-        <v>5.4024073637007324E-3</v>
+        <v>4.9691858579305869E-3</v>
       </c>
       <c r="S15">
-        <v>7.5525135709228231E-5</v>
+        <v>5.1897502432695432E-5</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1.5624262449846591E-3</v>
+        <v>1.4774570223807979E-3</v>
       </c>
       <c r="V15">
-        <v>1.2980882700023601E-4</v>
+        <v>5.8384690236782358E-5</v>
       </c>
       <c r="W15">
-        <v>1.3334906773660609E-3</v>
+        <v>1.3298734998378201E-3</v>
       </c>
       <c r="X15">
-        <v>1.180080245456691E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="Y15">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1.0856738258201559E-4</v>
+        <v>2.1245540058384689E-4</v>
       </c>
       <c r="AB15">
-        <v>7.0804814727401466E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="AC15">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>6.3488317205569981E-4</v>
+        <v>6.4547518650664938E-4</v>
       </c>
       <c r="AF15">
-        <v>4.5291479820627799E-3</v>
+        <v>3.5549789166396369E-3</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>9.5586499881991974E-4</v>
+        <v>8.9198832306195265E-4</v>
       </c>
       <c r="AI15">
-        <v>1.7181968373849419E-3</v>
+        <v>1.4385338955562759E-3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2088,106 +2088,106 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.8657068680670289E-3</v>
+        <v>7.8138177100227045E-3</v>
       </c>
       <c r="C16">
-        <v>3.6228463535520421E-3</v>
+        <v>2.2380797924099901E-3</v>
       </c>
       <c r="D16">
-        <v>2.6433797498229879E-4</v>
+        <v>2.5948751216347709E-5</v>
       </c>
       <c r="E16">
-        <v>1.156478640547557E-4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2.59617654000472E-5</v>
+        <v>7.4602659746999682E-5</v>
       </c>
       <c r="G16">
-        <v>9.4406419636535288E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="H16">
-        <v>3.6747698843521358E-3</v>
+        <v>4.1404476159584824E-3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.180080245456691E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="L16">
-        <v>3.3537880575879161E-3</v>
+        <v>2.156989944858904E-3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.2980882700023601E-4</v>
+        <v>6.3250081089847557E-5</v>
       </c>
       <c r="O16">
-        <v>1.6521123436393669E-4</v>
+        <v>1.054168018164126E-4</v>
       </c>
       <c r="P16">
-        <v>1.4396978994571629E-4</v>
+        <v>2.432695426532598E-5</v>
       </c>
       <c r="Q16">
-        <v>1.0691527023837619E-3</v>
+        <v>1.7418099253973399E-3</v>
       </c>
       <c r="R16">
-        <v>3.1696955392966721E-3</v>
+        <v>3.6020110282192672E-3</v>
       </c>
       <c r="S16">
-        <v>3.0682086381873959E-4</v>
+        <v>1.248783652286734E-4</v>
       </c>
       <c r="T16">
-        <v>9.9126740618362048E-5</v>
+        <v>6.0006487187804077E-5</v>
       </c>
       <c r="U16">
-        <v>2.3129572810951139E-4</v>
+        <v>1.2650016217969509E-4</v>
       </c>
       <c r="V16">
-        <v>4.0122728345527498E-5</v>
+        <v>1.508271164450211E-4</v>
       </c>
       <c r="W16">
-        <v>1.6757139485485009E-3</v>
+        <v>2.281868310087577E-3</v>
       </c>
       <c r="X16">
-        <v>4.7203209818267641E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="Y16">
-        <v>1.6521123436393671E-5</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>3.0682086381873973E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AA16">
-        <v>3.5402407363700732E-5</v>
+        <v>6.4871878040869283E-5</v>
       </c>
       <c r="AB16">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>4.7203209818267636E-6</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AD16">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>8.3077649280151051E-4</v>
+        <v>8.4333441453130072E-4</v>
       </c>
       <c r="AF16">
-        <v>1.014869011092754E-4</v>
+        <v>8.2711644502108341E-5</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>4.0122728345527503E-4</v>
+        <v>3.584171261758028E-4</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2195,106 +2195,106 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.6575407127684678E-3</v>
+        <v>3.386312033733377E-3</v>
       </c>
       <c r="C17">
-        <v>9.5185272598536704E-3</v>
+        <v>1.0025948751216349E-2</v>
       </c>
       <c r="D17">
-        <v>2.1241444418220441E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="E17">
-        <v>4.2482888836440868E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="F17">
-        <v>2.2657540712768469E-4</v>
+        <v>3.7301329873499841E-5</v>
       </c>
       <c r="G17">
-        <v>7.5053103611045547E-4</v>
+        <v>3.0327602984106392E-4</v>
       </c>
       <c r="H17">
-        <v>6.8586263865942883E-3</v>
+        <v>1.121959130716834E-2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="J17">
-        <v>1.2508850601840931E-4</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="K17">
-        <v>6.1364172763747932E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="L17">
-        <v>7.3684210526315788E-3</v>
+        <v>6.9218293869607534E-3</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.9563370309181024E-4</v>
+        <v>3.0327602984106392E-4</v>
       </c>
       <c r="O17">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="P17">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.023365588860042E-3</v>
+        <v>2.5867661368796629E-3</v>
       </c>
       <c r="R17">
-        <v>9.7521831484540956E-3</v>
+        <v>1.0470321115796301E-2</v>
       </c>
       <c r="S17">
-        <v>4.7203209818267636E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="T17">
-        <v>6.8444654236488075E-5</v>
+        <v>9.4064223159260466E-5</v>
       </c>
       <c r="U17">
-        <v>9.4878451734717957E-4</v>
+        <v>2.7408368472267271E-4</v>
       </c>
       <c r="V17">
-        <v>1.1611989615293839E-3</v>
+        <v>3.3733376581252032E-4</v>
       </c>
       <c r="W17">
-        <v>2.327118244040595E-3</v>
+        <v>2.236457995458969E-3</v>
       </c>
       <c r="X17">
-        <v>3.3042246872787349E-5</v>
+        <v>4.7032111579630233E-5</v>
       </c>
       <c r="Y17">
-        <v>3.5402407363700732E-5</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>6.4904413500118004E-4</v>
+        <v>1.7191047680830359E-4</v>
       </c>
       <c r="AA17">
-        <v>2.619778144913854E-4</v>
+        <v>2.9678884203697701E-4</v>
       </c>
       <c r="AB17">
-        <v>1.6521123436393671E-5</v>
+        <v>2.432695426532598E-5</v>
       </c>
       <c r="AC17">
-        <v>5.1923530800094407E-5</v>
+        <v>1.08660395718456E-4</v>
       </c>
       <c r="AD17">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>4.569270710408308E-3</v>
+        <v>2.4894583198183588E-3</v>
       </c>
       <c r="AF17">
-        <v>8.9214066556525843E-4</v>
+        <v>1.086603957184561E-3</v>
       </c>
       <c r="AG17">
-        <v>2.59617654000472E-5</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>1.014869011092754E-4</v>
+        <v>1.4920531949399939E-4</v>
       </c>
       <c r="AI17">
-        <v>1.000708048147274E-3</v>
+        <v>3.431722348361985E-3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2302,88 +2302,88 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.5317441586027851E-2</v>
+        <v>2.469672397015894E-2</v>
       </c>
       <c r="C18">
-        <v>4.7203209818267641E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="D18">
-        <v>3.3986311069152701E-3</v>
+        <v>3.1771002270515728E-3</v>
       </c>
       <c r="E18">
-        <v>8.6594288411611983E-3</v>
+        <v>7.0937398637690562E-3</v>
       </c>
       <c r="F18">
-        <v>4.2813311305168753E-3</v>
+        <v>4.8686344469672394E-3</v>
       </c>
       <c r="G18">
-        <v>5.7729525607741316E-3</v>
+        <v>4.2458644177748948E-3</v>
       </c>
       <c r="H18">
-        <v>1.5836676894028789E-3</v>
+        <v>1.939669153421991E-3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="J18">
-        <v>1.720556997875856E-3</v>
+        <v>2.4537787868958811E-3</v>
       </c>
       <c r="K18">
-        <v>1.3877743686570691E-3</v>
+        <v>8.871229322088874E-4</v>
       </c>
       <c r="L18">
-        <v>6.9860750531036111E-4</v>
+        <v>7.4116120661693152E-4</v>
       </c>
       <c r="M18">
-        <v>3.8824640075525141E-3</v>
+        <v>2.8138177100227048E-3</v>
       </c>
       <c r="N18">
-        <v>2.022657540712769E-3</v>
+        <v>1.8001946156341231E-3</v>
       </c>
       <c r="O18">
-        <v>6.2308236960113283E-3</v>
+        <v>5.126500162179695E-3</v>
       </c>
       <c r="P18">
-        <v>5.7351899929195182E-3</v>
+        <v>5.1378527408368476E-3</v>
       </c>
       <c r="Q18">
-        <v>4.6825584139721498E-3</v>
+        <v>5.4313979889717796E-3</v>
       </c>
       <c r="R18">
-        <v>4.0122728345527503E-4</v>
+        <v>1.8488485241647751E-4</v>
       </c>
       <c r="S18">
-        <v>1.6473920226575409E-3</v>
+        <v>1.209860525462212E-3</v>
       </c>
       <c r="T18">
-        <v>6.6650932263393912E-3</v>
+        <v>4.680506000648719E-3</v>
       </c>
       <c r="U18">
-        <v>6.7429785225395326E-3</v>
+        <v>5.5660071359065841E-3</v>
       </c>
       <c r="V18">
-        <v>5.0649044135001181E-3</v>
+        <v>6.3963671748297106E-3</v>
       </c>
       <c r="W18">
-        <v>1.1328770356384231E-4</v>
+        <v>1.167693804735647E-4</v>
       </c>
       <c r="X18">
-        <v>2.4781685154590512E-4</v>
+        <v>3.1949399935128121E-4</v>
       </c>
       <c r="Y18">
-        <v>6.584847769648336E-4</v>
+        <v>3.3571196886149861E-4</v>
       </c>
       <c r="Z18">
-        <v>2.242152466367713E-4</v>
+        <v>1.3136555303276031E-4</v>
       </c>
       <c r="AA18">
-        <v>1.760679726221383E-3</v>
+        <v>2.421342847875446E-3</v>
       </c>
       <c r="AB18">
-        <v>8.6853906065612464E-4</v>
+        <v>8.303600389231268E-4</v>
       </c>
       <c r="AC18">
-        <v>2.147746046731178E-4</v>
+        <v>2.0596821277975999E-4</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2395,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>1.581307528911966E-4</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="AH18">
-        <v>2.6905829596412557E-4</v>
+        <v>6.1790463833927994E-4</v>
       </c>
       <c r="AI18">
-        <v>6.3960349303752659E-4</v>
+        <v>5.5627635420045409E-4</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2409,106 +2409,106 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.3873023365588863E-4</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="C19">
-        <v>2.0438989851309891E-3</v>
+        <v>1.3152773272786251E-3</v>
       </c>
       <c r="D19">
-        <v>1.180080245456691E-5</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1.416096294548029E-5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.6386594288411612E-3</v>
+        <v>2.0694129095037302E-3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.493981590748171E-3</v>
+        <v>7.7359714563736621E-4</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>8.7325938163795139E-5</v>
+        <v>5.5141096334738892E-5</v>
       </c>
       <c r="O19">
-        <v>8.4021713476516407E-4</v>
+        <v>4.3626337982484589E-4</v>
       </c>
       <c r="P19">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.2980882700023601E-4</v>
+        <v>1.054168018164126E-4</v>
       </c>
       <c r="R19">
-        <v>9.2093462355440168E-3</v>
+        <v>8.8258190074602654E-3</v>
       </c>
       <c r="S19">
-        <v>8.6145857918338447E-4</v>
+        <v>5.6438533895556277E-4</v>
       </c>
       <c r="T19">
-        <v>5.9806466839745099E-3</v>
+        <v>6.8407395394096656E-3</v>
       </c>
       <c r="U19">
-        <v>1.0856738258201559E-4</v>
+        <v>2.7570548167369449E-5</v>
       </c>
       <c r="V19">
-        <v>1.10927543072929E-4</v>
+        <v>1.4109633473889069E-4</v>
       </c>
       <c r="W19">
-        <v>9.3462355440169934E-4</v>
+        <v>5.9195588712293221E-4</v>
       </c>
       <c r="X19">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.416096294548029E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="AA19">
-        <v>1.6521123436393671E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="AB19">
-        <v>9.4406419636535288E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AC19">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>2.9029974038234597E-4</v>
+        <v>1.9137204022056441E-4</v>
       </c>
       <c r="AF19">
-        <v>8.2605617181968373E-5</v>
+        <v>5.3519299383717158E-5</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>7.0804814727401466E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="AI19">
-        <v>3.2098182676421999E-4</v>
+        <v>4.9626986701264996E-4</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2516,106 +2516,106 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.623790417748407E-3</v>
+        <v>5.8709049626986696E-4</v>
       </c>
       <c r="C20">
-        <v>8.4399339155062543E-3</v>
+        <v>6.6072007784625363E-3</v>
       </c>
       <c r="D20">
-        <v>1.3452914798206279E-4</v>
+        <v>1.200129743756082E-4</v>
       </c>
       <c r="E20">
-        <v>3.941468019825348E-4</v>
+        <v>3.6490431397988971E-4</v>
       </c>
       <c r="F20">
-        <v>5.2395562898277081E-4</v>
+        <v>1.4433992864093409E-4</v>
       </c>
       <c r="G20">
-        <v>2.7849893792777908E-4</v>
+        <v>6.8277651638014921E-4</v>
       </c>
       <c r="H20">
-        <v>6.1340571158838798E-3</v>
+        <v>5.0632500810898484E-3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.7849893792777908E-4</v>
+        <v>2.384041518001946E-4</v>
       </c>
       <c r="K20">
-        <v>1.156478640547557E-4</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="L20">
-        <v>5.1829124380457867E-3</v>
+        <v>4.5264352903016539E-3</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.3190936983714888E-4</v>
+        <v>1.8001946156341231E-4</v>
       </c>
       <c r="O20">
-        <v>8.7325938163795139E-5</v>
+        <v>6.0006487187804077E-5</v>
       </c>
       <c r="P20">
-        <v>4.5787113523719611E-4</v>
+        <v>2.2867337009406421E-4</v>
       </c>
       <c r="Q20">
-        <v>1.409015813075289E-3</v>
+        <v>5.4654557249432371E-4</v>
       </c>
       <c r="R20">
-        <v>8.553221619070097E-3</v>
+        <v>6.7174829711320154E-3</v>
       </c>
       <c r="S20">
-        <v>1.0856738258201559E-4</v>
+        <v>1.070385987674343E-4</v>
       </c>
       <c r="T20">
-        <v>1.321689874911494E-4</v>
+        <v>7.4602659746999682E-5</v>
       </c>
       <c r="U20">
-        <v>7.1748878923766812E-4</v>
+        <v>7.7846253649043135E-5</v>
       </c>
       <c r="V20">
-        <v>7.4345055463771541E-4</v>
+        <v>4.3464158287382423E-4</v>
       </c>
       <c r="W20">
-        <v>2.761387774368657E-3</v>
+        <v>2.2656503405773598E-3</v>
       </c>
       <c r="X20">
-        <v>4.4843049327354258E-5</v>
+        <v>7.1359065844956216E-5</v>
       </c>
       <c r="Y20">
-        <v>1.770120368185037E-4</v>
+        <v>5.0275705481673692E-5</v>
       </c>
       <c r="Z20">
-        <v>8.7325938163795139E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="AA20">
-        <v>8.7325938163795139E-5</v>
+        <v>5.1897502432695432E-5</v>
       </c>
       <c r="AB20">
-        <v>2.0061364172763751E-4</v>
+        <v>3.0003243593902039E-4</v>
       </c>
       <c r="AC20">
-        <v>3.3042246872787349E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.522303516639131E-3</v>
+        <v>9.0658449562114828E-4</v>
       </c>
       <c r="AF20">
-        <v>5.2867594996459759E-4</v>
+        <v>9.0820629257216999E-4</v>
       </c>
       <c r="AG20">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AH20">
-        <v>1.4396978994571629E-4</v>
+        <v>1.9948102497567311E-4</v>
       </c>
       <c r="AI20">
-        <v>8.4729761623790413E-4</v>
+        <v>9.9091793707427821E-4</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2623,106 +2623,106 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.7802690582959641E-3</v>
+        <v>3.551735322737593E-3</v>
       </c>
       <c r="C21">
-        <v>1.845645503894265E-3</v>
+        <v>1.9007460265974699E-3</v>
       </c>
       <c r="D21">
-        <v>8.7325938163795139E-5</v>
+        <v>5.3519299383717158E-5</v>
       </c>
       <c r="E21">
-        <v>1.1493981590748169E-3</v>
+        <v>1.2131041193642559E-3</v>
       </c>
       <c r="F21">
-        <v>3.5402407363700732E-5</v>
+        <v>2.108336036328252E-5</v>
       </c>
       <c r="G21">
-        <v>1.2980882700023601E-4</v>
+        <v>1.6380149205319489E-4</v>
       </c>
       <c r="H21">
-        <v>2.6929431201321691E-3</v>
+        <v>3.7041842361336362E-3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.4871878040869281E-4</v>
       </c>
       <c r="J21">
-        <v>2.3601604909133818E-6</v>
+        <v>1.7839766461239051E-5</v>
       </c>
       <c r="K21">
-        <v>2.3601604909133818E-6</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="L21">
-        <v>2.1241444418220439E-3</v>
+        <v>1.263379824845929E-3</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.1050271418456453E-3</v>
+        <v>3.3165747648394419E-3</v>
       </c>
       <c r="O21">
-        <v>2.1406655652584381E-3</v>
+        <v>2.8997729484268571E-3</v>
       </c>
       <c r="P21">
-        <v>6.8916686334670756E-4</v>
+        <v>1.130392474862147E-3</v>
       </c>
       <c r="Q21">
-        <v>9.9834788765636065E-4</v>
+        <v>9.5199481024975678E-4</v>
       </c>
       <c r="R21">
-        <v>2.945480292659901E-3</v>
+        <v>2.5591955887122931E-3</v>
       </c>
       <c r="S21">
-        <v>1.715836676894029E-3</v>
+        <v>1.665585468699319E-3</v>
       </c>
       <c r="T21">
-        <v>3.3750295020061372E-4</v>
+        <v>1.102821926694778E-4</v>
       </c>
       <c r="U21">
-        <v>1.3806938871843289E-3</v>
+        <v>7.1845604930262732E-4</v>
       </c>
       <c r="V21">
-        <v>1.189756903469436E-2</v>
+        <v>9.6610444372364577E-3</v>
       </c>
       <c r="W21">
-        <v>7.5053103611045547E-4</v>
+        <v>5.3843658773921504E-4</v>
       </c>
       <c r="X21">
-        <v>3.0682086381873973E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Y21">
-        <v>1.6757139485485011E-4</v>
+        <v>1.8488485241647751E-4</v>
       </c>
       <c r="Z21">
-        <v>7.5525135709228231E-5</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="AA21">
-        <v>3.0446070332782631E-4</v>
+        <v>4.3950697372688942E-4</v>
       </c>
       <c r="AB21">
-        <v>8.9686098654708516E-5</v>
+        <v>9.8929614012325658E-5</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>4.7203209818267641E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="AE21">
-        <v>4.1066792541892848E-4</v>
+        <v>2.0434641582873819E-4</v>
       </c>
       <c r="AF21">
-        <v>2.7472268114231771E-3</v>
+        <v>3.211157963023029E-3</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>1.79372197309417E-4</v>
+        <v>2.3678235484917291E-4</v>
       </c>
       <c r="AI21">
-        <v>3.2759027613877738E-3</v>
+        <v>3.7268893934479402E-3</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2730,106 +2730,106 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.7368421052631582E-3</v>
+        <v>5.6162828413882579E-3</v>
       </c>
       <c r="C22">
-        <v>6.6462119424120841E-3</v>
+        <v>5.8417126175802792E-3</v>
       </c>
       <c r="D22">
-        <v>1.416096294548029E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="E22">
-        <v>3.0280859098418692E-3</v>
+        <v>2.1910476808303602E-3</v>
       </c>
       <c r="F22">
-        <v>9.4406419636535288E-6</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="G22">
-        <v>2.194949256549445E-4</v>
+        <v>7.6224456698021408E-5</v>
       </c>
       <c r="H22">
-        <v>5.5888600424828889E-3</v>
+        <v>5.5757379176127149E-3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="K22">
-        <v>7.0804814727401466E-6</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="L22">
-        <v>3.962709464243569E-3</v>
+        <v>3.593902043464158E-3</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.9004012272834551E-4</v>
+        <v>3.0814142069412911E-4</v>
       </c>
       <c r="O22">
-        <v>2.0297380221855079E-4</v>
+        <v>2.5300032435939017E-4</v>
       </c>
       <c r="P22">
-        <v>3.0682086381873973E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="Q22">
-        <v>1.484540948784517E-3</v>
+        <v>8.7090496269867017E-4</v>
       </c>
       <c r="R22">
-        <v>9.702619778144914E-3</v>
+        <v>1.460265974699968E-2</v>
       </c>
       <c r="S22">
-        <v>1.4396978994571629E-4</v>
+        <v>8.5955238404151807E-5</v>
       </c>
       <c r="T22">
-        <v>3.5048383290063731E-3</v>
+        <v>2.364579954589685E-3</v>
       </c>
       <c r="U22">
-        <v>1.1493981590748169E-3</v>
+        <v>1.050924424262082E-3</v>
       </c>
       <c r="V22">
-        <v>8.9686098654708516E-5</v>
+        <v>5.5141096334738892E-5</v>
       </c>
       <c r="W22">
-        <v>2.0509794666037288E-3</v>
+        <v>1.3752838144664289E-3</v>
       </c>
       <c r="X22">
-        <v>1.180080245456691E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="Y22">
-        <v>1.8881283927307061E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="Z22">
-        <v>9.6766580127448672E-5</v>
+        <v>5.3519299383717158E-5</v>
       </c>
       <c r="AA22">
-        <v>1.0856738258201559E-4</v>
+        <v>2.72461887771651E-4</v>
       </c>
       <c r="AB22">
-        <v>4.7203209818267636E-6</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AC22">
-        <v>3.3042246872787349E-5</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="AD22">
-        <v>9.4406419636535288E-6</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="AE22">
-        <v>1.538824640075525E-3</v>
+        <v>1.119039896204995E-3</v>
       </c>
       <c r="AF22">
-        <v>3.9202265754071279E-3</v>
+        <v>6.4288031138501458E-3</v>
       </c>
       <c r="AG22">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AH22">
-        <v>1.5577059240028319E-4</v>
+        <v>4.05449237755433E-5</v>
       </c>
       <c r="AI22">
-        <v>5.2395562898277081E-4</v>
+        <v>4.5248134933506318E-4</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2837,88 +2837,88 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.4448902525371726E-3</v>
+        <v>6.2455400583846903E-3</v>
       </c>
       <c r="C23">
-        <v>1.4632995043662971E-4</v>
+        <v>3.4057735971456368E-5</v>
       </c>
       <c r="D23">
-        <v>1.095114467783809E-3</v>
+        <v>4.5085955238404152E-4</v>
       </c>
       <c r="E23">
-        <v>4.1538824640075531E-4</v>
+        <v>6.7466753162504054E-4</v>
       </c>
       <c r="F23">
-        <v>6.9860750531036111E-4</v>
+        <v>1.4206941290950371E-3</v>
       </c>
       <c r="G23">
-        <v>1.6072692943120131E-3</v>
+        <v>1.6185533571196891E-3</v>
       </c>
       <c r="H23">
-        <v>3.0682086381873959E-4</v>
+        <v>1.5893610120012969E-4</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.2036818503658249E-3</v>
+        <v>1.574764839442102E-3</v>
       </c>
       <c r="K23">
-        <v>4.4607033278262922E-4</v>
+        <v>2.6759649691858581E-4</v>
       </c>
       <c r="L23">
-        <v>4.9563370309181017E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="M23">
-        <v>1.2508850601840931E-4</v>
+        <v>1.702886798572819E-4</v>
       </c>
       <c r="N23">
-        <v>9.7238612225631347E-4</v>
+        <v>5.4978916639636713E-4</v>
       </c>
       <c r="O23">
-        <v>1.883408071748879E-3</v>
+        <v>1.0736295815763871E-3</v>
       </c>
       <c r="P23">
-        <v>8.8033986311069148E-4</v>
+        <v>1.3250081089847549E-3</v>
       </c>
       <c r="Q23">
-        <v>4.4843049327354261E-4</v>
+        <v>1.735322737593253E-4</v>
       </c>
       <c r="R23">
-        <v>3.5402407363700732E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="S23">
-        <v>8.0481472740146333E-4</v>
+        <v>5.4330197859228028E-4</v>
       </c>
       <c r="T23">
-        <v>1.0903941468019831E-3</v>
+        <v>4.5734674018812842E-4</v>
       </c>
       <c r="U23">
-        <v>1.2461647392022659E-3</v>
+        <v>9.1307168342523513E-4</v>
       </c>
       <c r="V23">
-        <v>1.234363936747699E-3</v>
+        <v>1.5066493674991889E-3</v>
       </c>
       <c r="W23">
-        <v>2.59617654000472E-5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>3.3042246872787349E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Y23">
-        <v>5.1451498701911725E-4</v>
+        <v>3.1138501459617248E-4</v>
       </c>
       <c r="Z23">
-        <v>1.416096294548029E-5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>9.3226339391078595E-4</v>
+        <v>7.7684073953940963E-4</v>
       </c>
       <c r="AB23">
-        <v>6.1836204861930608E-4</v>
+        <v>5.3032760298410636E-4</v>
       </c>
       <c r="AC23">
-        <v>2.3837620958225159E-4</v>
+        <v>2.4651313655530332E-4</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>3.0682086381873973E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="AH23">
-        <v>1.104555109747463E-3</v>
+        <v>6.8439831333117092E-4</v>
       </c>
       <c r="AI23">
-        <v>9.2046259145621905E-5</v>
+        <v>2.432695426532598E-5</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2944,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.6766580127448672E-5</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="C24">
-        <v>3.0210054283691292E-4</v>
+        <v>1.8650664936749919E-4</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.2010856738258198E-4</v>
+        <v>2.9354524813493348E-4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2974,43 +2974,43 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.7911257965541662E-4</v>
+        <v>4.8167369445345439E-4</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>5.9004012272834549E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="P24">
-        <v>7.0804814727401466E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Q24">
-        <v>7.0804814727401466E-6</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="R24">
-        <v>4.1774840689166859E-4</v>
+        <v>7.9468050600064874E-5</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1.7229171583667689E-4</v>
+        <v>8.2711644502108341E-5</v>
       </c>
       <c r="U24">
-        <v>4.9563370309181017E-5</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1.6521123436393671E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="W24">
-        <v>9.4406419636535282E-5</v>
+        <v>4.54103146286085E-5</v>
       </c>
       <c r="X24">
-        <v>2.1241444418220441E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>7.0804814727401466E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AF24">
-        <v>1.180080245456691E-5</v>
+        <v>2.4489133960428161E-4</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3051,25 +3051,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.5591220202973802E-3</v>
+        <v>2.645150827116445E-3</v>
       </c>
       <c r="C25">
-        <v>6.9388718432853433E-4</v>
+        <v>4.1193642555951992E-4</v>
       </c>
       <c r="D25">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.699315553457635E-4</v>
+        <v>2.011028219266948E-4</v>
       </c>
       <c r="F25">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1.014869011092754E-4</v>
+        <v>6.1628284138825817E-5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3081,46 +3081,46 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.3042246872787349E-4</v>
+        <v>1.167693804735647E-4</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.6521123436393671E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="O25">
-        <v>1.6285107387302341E-4</v>
+        <v>8.919883230619526E-5</v>
       </c>
       <c r="P25">
-        <v>1.6521123436393669E-4</v>
+        <v>5.0275705481673692E-5</v>
       </c>
       <c r="Q25">
-        <v>2.2185508614585791E-4</v>
+        <v>1.248783652286734E-4</v>
       </c>
       <c r="R25">
-        <v>2.0793013924946899E-3</v>
+        <v>2.2072656503405769E-3</v>
       </c>
       <c r="S25">
-        <v>4.7203209818267636E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="T25">
-        <v>1.2980882700023601E-4</v>
+        <v>6.811547194291275E-5</v>
       </c>
       <c r="U25">
-        <v>5.9004012272834549E-5</v>
+        <v>3.4057735971456368E-5</v>
       </c>
       <c r="V25">
-        <v>5.1923530800094407E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="W25">
-        <v>2.2893556761859811E-4</v>
+        <v>8.1089847551086601E-5</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>1.6521123436393671E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>9.4406419636535288E-6</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.602312957281095E-4</v>
+        <v>4.5734674018812842E-4</v>
       </c>
       <c r="C26">
-        <v>8.2605617181968373E-4</v>
+        <v>5.7735971456373658E-4</v>
       </c>
       <c r="D26">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1.6049091338210999E-4</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="F26">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9.0630162851073877E-4</v>
+        <v>6.4060979565358413E-4</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3188,52 +3188,52 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1.1729997639839511E-3</v>
+        <v>1.281219591307168E-4</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2.5961765400047201E-4</v>
+        <v>5.8384690236782358E-5</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>7.0804814727401466E-6</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1.8409251829124381E-4</v>
+        <v>2.0272461887771651E-4</v>
       </c>
       <c r="S26">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="W26">
-        <v>2.194949256549445E-4</v>
+        <v>1.3785274083684721E-4</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>2.7141845645503902E-4</v>
+        <v>2.0596821277975999E-4</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.4493745574699074E-4</v>
+        <v>4.3950697372688942E-4</v>
       </c>
       <c r="C27">
-        <v>2.1760679726221381E-3</v>
+        <v>2.7830035679532921E-3</v>
       </c>
       <c r="D27">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1.416096294548029E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="F27">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3.3467075761151759E-3</v>
+        <v>3.9328576062277014E-3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3295,40 +3295,40 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1.706396034930375E-3</v>
+        <v>1.626662341874797E-3</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>6.6084493745574699E-4</v>
+        <v>2.5300032435939017E-4</v>
       </c>
       <c r="O27">
-        <v>8.0245456691054997E-5</v>
+        <v>2.5948751216347709E-5</v>
       </c>
       <c r="P27">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="Q27">
-        <v>8.7089922114703803E-4</v>
+        <v>8.8387933830684398E-4</v>
       </c>
       <c r="R27">
-        <v>7.0804814727401465E-5</v>
+        <v>5.5141096334738892E-5</v>
       </c>
       <c r="S27">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>9.4406419636535282E-5</v>
+        <v>3.1138501459617248E-4</v>
       </c>
       <c r="U27">
-        <v>9.4406419636535288E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="V27">
-        <v>1.569506726457399E-3</v>
+        <v>4.5896853713915014E-3</v>
       </c>
       <c r="W27">
-        <v>4.6259145621902289E-4</v>
+        <v>6.3898799870256242E-4</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>9.4406419636535288E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AB27">
-        <v>5.428369129100779E-5</v>
+        <v>1.5731430424910801E-4</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>2.2893556761859811E-4</v>
+        <v>1.962374310736296E-4</v>
       </c>
       <c r="AG27">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3372,16 +3372,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.9686098654708516E-5</v>
+        <v>7.1359065844956216E-5</v>
       </c>
       <c r="C28">
-        <v>1.104555109747463E-3</v>
+        <v>8.2711644502108338E-4</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2.59617654000472E-5</v>
+        <v>5.1897502432695432E-5</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1.9754543308945008E-3</v>
+        <v>2.0904962698670131E-3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3402,49 +3402,49 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1.5459051215482649E-3</v>
+        <v>1.350956860201103E-3</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4.3426953032806232E-4</v>
+        <v>4.995134609146935E-4</v>
       </c>
       <c r="O28">
-        <v>5.1687514751003064E-4</v>
+        <v>5.4654557249432371E-4</v>
       </c>
       <c r="P28">
-        <v>1.180080245456691E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="Q28">
-        <v>3.7054519707340101E-4</v>
+        <v>3.6490431397988971E-4</v>
       </c>
       <c r="R28">
-        <v>2.5489733301864529E-4</v>
+        <v>2.0272461887771651E-4</v>
       </c>
       <c r="S28">
-        <v>3.0682086381873973E-5</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="T28">
-        <v>4.7203209818267636E-6</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="U28">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1.699315553457635E-4</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="W28">
-        <v>3.186216662733066E-4</v>
+        <v>2.4002594875121631E-4</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3462,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>1.79372197309417E-4</v>
+        <v>4.4761595848199798E-4</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>9.4406419636535288E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3479,16 +3479,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.9686098654708516E-5</v>
+        <v>9.2442426208238726E-5</v>
       </c>
       <c r="C29">
-        <v>4.3662969081897571E-4</v>
+        <v>2.6921829386960752E-4</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1.1635591220202971E-3</v>
+        <v>1.4482646772624071E-3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>7.8357328298324282E-4</v>
+        <v>4.492377554330198E-4</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5.428369129100779E-5</v>
+        <v>5.1897502432695432E-5</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4.7203209818267636E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1.2272834552749589E-4</v>
+        <v>1.021732079143691E-4</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>4.4843049327354258E-5</v>
+        <v>1.946156341226078E-5</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1.2744866650932259E-4</v>
+        <v>5.3519299383717158E-5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3631,19 +3631,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4.7203209818267636E-6</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>9.4406419636535288E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AI30">
-        <v>1.156478640547557E-4</v>
+        <v>2.1407719753486861E-4</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3693,88 +3693,88 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.4300212414444184E-3</v>
+        <v>4.5410314628608504E-3</v>
       </c>
       <c r="C31">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="D31">
-        <v>1.3452914798206279E-4</v>
+        <v>1.2325656827765161E-4</v>
       </c>
       <c r="E31">
-        <v>9.4170403587443951E-4</v>
+        <v>7.7846253649043135E-4</v>
       </c>
       <c r="F31">
-        <v>1.4396978994571629E-4</v>
+        <v>8.1089847551086601E-5</v>
       </c>
       <c r="G31">
-        <v>1.0856738258201559E-4</v>
+        <v>1.9137204022056441E-4</v>
       </c>
       <c r="H31">
-        <v>1.3618126032570209E-3</v>
+        <v>5.7411612066169315E-4</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4.0122728345527498E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="K31">
-        <v>7.3164975218314841E-5</v>
+        <v>4.2166720726565027E-5</v>
       </c>
       <c r="L31">
-        <v>6.3724333254661322E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="M31">
-        <v>2.003776256785461E-3</v>
+        <v>1.2990593577684071E-3</v>
       </c>
       <c r="N31">
-        <v>2.1005428369129099E-4</v>
+        <v>2.4651313655530332E-4</v>
       </c>
       <c r="O31">
-        <v>1.8645267878215719E-3</v>
+        <v>1.8893934479403179E-3</v>
       </c>
       <c r="P31">
-        <v>1.3759735662025019E-3</v>
+        <v>9.4875121634771325E-4</v>
       </c>
       <c r="Q31">
-        <v>2.5017701203681851E-4</v>
+        <v>2.6435290301654233E-4</v>
       </c>
       <c r="R31">
-        <v>4.7203209818267636E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="S31">
-        <v>2.0533396270946421E-4</v>
+        <v>6.4871878040869283E-5</v>
       </c>
       <c r="T31">
-        <v>1.8881283927307059E-4</v>
+        <v>1.9461563412260781E-4</v>
       </c>
       <c r="U31">
-        <v>5.7587915978286528E-4</v>
+        <v>7.4116120661693152E-4</v>
       </c>
       <c r="V31">
-        <v>4.9091338210998346E-4</v>
+        <v>8.4495621148232244E-4</v>
       </c>
       <c r="W31">
-        <v>7.0804814727401466E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>1.2461647392022659E-3</v>
+        <v>7.3791761271488809E-4</v>
       </c>
       <c r="Z31">
-        <v>7.0804814727401466E-6</v>
+        <v>3.4057735971456368E-5</v>
       </c>
       <c r="AA31">
-        <v>1.6521123436393669E-4</v>
+        <v>2.9841063898799867E-4</v>
       </c>
       <c r="AB31">
-        <v>4.5079065376445599E-4</v>
+        <v>4.2977619202075898E-4</v>
       </c>
       <c r="AC31">
-        <v>1.6521123436393671E-5</v>
+        <v>1.102821926694778E-4</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3786,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.3601604909133818E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1.6521123436393671E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3800,25 +3800,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.4132641019589336E-3</v>
+        <v>1.248783652286734E-2</v>
       </c>
       <c r="C32">
-        <v>1.180080245456691E-5</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>8.0245456691054997E-5</v>
+        <v>1.005514109633474E-4</v>
       </c>
       <c r="E32">
-        <v>6.1364172763747932E-5</v>
+        <v>3.5679532922478108E-5</v>
       </c>
       <c r="F32">
-        <v>1.7465187632759031E-4</v>
+        <v>8.7577035355173533E-5</v>
       </c>
       <c r="G32">
-        <v>1.699315553457635E-4</v>
+        <v>4.54103146286085E-5</v>
       </c>
       <c r="H32">
-        <v>5.9004012272834551E-4</v>
+        <v>6.0168666882906259E-4</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3827,61 +3827,61 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1.1328770356384231E-4</v>
+        <v>1.167693804735647E-4</v>
       </c>
       <c r="L32">
-        <v>9.4406419636535282E-5</v>
+        <v>1.2650016217969509E-4</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>7.1276846825584135E-4</v>
+        <v>1.237431073629582E-3</v>
       </c>
       <c r="O32">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>2.360160490913382E-4</v>
+        <v>2.838144664288031E-4</v>
       </c>
       <c r="Q32">
-        <v>1.5883880103847059E-3</v>
+        <v>1.3152773272786251E-3</v>
       </c>
       <c r="R32">
-        <v>6.1364172763747932E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="S32">
-        <v>4.0122728345527498E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="T32">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="U32">
-        <v>7.1512862874675473E-4</v>
+        <v>9.5361660720077849E-4</v>
       </c>
       <c r="V32">
-        <v>1.8881283927307059E-4</v>
+        <v>2.189425883879338E-4</v>
       </c>
       <c r="W32">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>4.0122728345527498E-5</v>
+        <v>8.1089847551086604E-6</v>
       </c>
       <c r="Y32">
-        <v>4.2482888836440868E-5</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>8.7325938163795139E-5</v>
+        <v>4.8653908530651959E-5</v>
       </c>
       <c r="AA32">
-        <v>6.6084493745574699E-5</v>
+        <v>8.7577035355173533E-5</v>
       </c>
       <c r="AB32">
-        <v>5.4519707340099132E-4</v>
+        <v>4.2328900421667207E-4</v>
       </c>
       <c r="AC32">
-        <v>1.8881283927307061E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>2.3601604909133818E-6</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="AH32">
-        <v>3.7290535756431429E-4</v>
+        <v>3.3409017191047679E-4</v>
       </c>
       <c r="AI32">
-        <v>6.9624734481944772E-4</v>
+        <v>3.8274408044112882E-4</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3907,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.416096294548029E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="G33">
-        <v>4.7203209818267636E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3934,49 +3934,49 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2.3601604909133818E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1.180080245456691E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="N33">
-        <v>1.368893084729761E-4</v>
+        <v>5.8384690236782358E-5</v>
       </c>
       <c r="O33">
-        <v>1.6049091338210999E-4</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="P33">
-        <v>8.0245456691054997E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="Q33">
-        <v>4.0122728345527498E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="R33">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>7.0804814727401465E-5</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="T33">
-        <v>4.4843049327354258E-5</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>6.8444654236488075E-5</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="V33">
-        <v>1.406655652584376E-3</v>
+        <v>2.8884203697697049E-3</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1.8881283927307061E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="Y33">
-        <v>1.6521123436393671E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>2.3601604909133818E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4014,22 +4014,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.0887420344583431E-3</v>
+        <v>3.2744080441128769E-3</v>
       </c>
       <c r="C34">
-        <v>4.7203209818267636E-6</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="D34">
-        <v>2.737786169459523E-4</v>
+        <v>4.2653259811871561E-4</v>
       </c>
       <c r="E34">
-        <v>1.8881283927307061E-5</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2.59617654000472E-5</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="G34">
-        <v>2.40736370073165E-4</v>
+        <v>2.7732727862471619E-4</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4038,64 +4038,64 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>5.1923530800094407E-5</v>
+        <v>1.6217969510217321E-5</v>
       </c>
       <c r="K34">
-        <v>1.2272834552749589E-4</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="L34">
-        <v>1.180080245456691E-5</v>
+        <v>3.2435939020434641E-6</v>
       </c>
       <c r="M34">
-        <v>1.6521123436393671E-5</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1.6049091338210999E-4</v>
+        <v>1.135257865715212E-5</v>
       </c>
       <c r="O34">
-        <v>2.832192589096059E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="P34">
-        <v>8.0245456691054997E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="Q34">
-        <v>9.9126740618362048E-5</v>
+        <v>4.3788517677586773E-5</v>
       </c>
       <c r="R34">
-        <v>9.4406419636535288E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="S34">
-        <v>9.4406419636535288E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="T34">
-        <v>9.6766580127448672E-5</v>
+        <v>5.5141096334738892E-5</v>
       </c>
       <c r="U34">
-        <v>1.4396978994571629E-4</v>
+        <v>2.1083360363282521E-4</v>
       </c>
       <c r="V34">
-        <v>3.8234599952796791E-4</v>
+        <v>3.0489782679208558E-4</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>9.4406419636535288E-6</v>
+        <v>4.8653908530651959E-6</v>
       </c>
       <c r="Z34">
-        <v>8.7325938163795139E-5</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>1.4632995043662971E-4</v>
+        <v>1.3947453778786901E-4</v>
       </c>
       <c r="AB34">
-        <v>2.360160490913382E-5</v>
+        <v>2.432695426532598E-5</v>
       </c>
       <c r="AC34">
-        <v>4.9091338210998346E-4</v>
+        <v>1.7677586766136881E-4</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>2.832192589096059E-5</v>
+        <v>2.5948751216347709E-5</v>
       </c>
       <c r="AI34">
-        <v>2.3601604909133818E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4121,88 +4121,88 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.5178192117063966E-3</v>
+        <v>1.221213104119364E-2</v>
       </c>
       <c r="C35">
-        <v>9.4406419636535288E-6</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="D35">
-        <v>1.1328770356384231E-4</v>
+        <v>9.7307817061303918E-6</v>
       </c>
       <c r="E35">
-        <v>3.0682086381873959E-4</v>
+        <v>2.4975673045734669E-4</v>
       </c>
       <c r="F35">
-        <v>1.3924946896388951E-4</v>
+        <v>6.0006487187804077E-5</v>
       </c>
       <c r="G35">
-        <v>3.941468019825348E-4</v>
+        <v>5.1248783652286731E-4</v>
       </c>
       <c r="H35">
-        <v>8.9686098654708516E-5</v>
+        <v>8.5955238404151807E-5</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.368893084729761E-4</v>
+        <v>1.005514109633474E-4</v>
       </c>
       <c r="K35">
-        <v>2.5725749350955862E-4</v>
+        <v>1.918585793058709E-3</v>
       </c>
       <c r="L35">
-        <v>5.6643851781921173E-5</v>
+        <v>1.297437560817386E-5</v>
       </c>
       <c r="M35">
-        <v>9.4406419636535282E-5</v>
+        <v>2.270515731430425E-5</v>
       </c>
       <c r="N35">
-        <v>2.0061364172763751E-4</v>
+        <v>2.011028219266948E-4</v>
       </c>
       <c r="O35">
-        <v>8.0009440641963655E-4</v>
+        <v>8.1900746026597471E-4</v>
       </c>
       <c r="P35">
-        <v>4.5551097474628272E-4</v>
+        <v>2.9678884203697701E-4</v>
       </c>
       <c r="Q35">
-        <v>8.4257729525607746E-4</v>
+        <v>5.2870580603308465E-4</v>
       </c>
       <c r="R35">
-        <v>1.6521123436393671E-5</v>
+        <v>1.4596172559195589E-5</v>
       </c>
       <c r="S35">
-        <v>1.486901109275431E-4</v>
+        <v>3.0814142069412909E-5</v>
       </c>
       <c r="T35">
-        <v>2.076941232003776E-4</v>
+        <v>3.7301329873499841E-5</v>
       </c>
       <c r="U35">
-        <v>5.4047675241916454E-4</v>
+        <v>5.1573143042491084E-4</v>
       </c>
       <c r="V35">
-        <v>1.3759735662025019E-3</v>
+        <v>1.5309763217645151E-3</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>7.0804814727401466E-6</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>2.0297380221855079E-4</v>
+        <v>1.475835225429776E-4</v>
       </c>
       <c r="Z35">
-        <v>5.9004012272834549E-5</v>
+        <v>6.649367499189101E-5</v>
       </c>
       <c r="AA35">
-        <v>1.4632995043662971E-4</v>
+        <v>1.881284463185209E-4</v>
       </c>
       <c r="AB35">
-        <v>2.59617654000472E-5</v>
+        <v>6.4871878040869282E-6</v>
       </c>
       <c r="AC35">
-        <v>2.3365588860042481E-4</v>
+        <v>1.2974375608173859E-4</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1.621796951021732E-6</v>
       </c>
       <c r="AH35">
-        <v>8.4965777672881749E-5</v>
+        <v>1.3460914693480381E-4</v>
       </c>
       <c r="AI35">
-        <v>7.3164975218314841E-5</v>
+        <v>7.7846253649043135E-5</v>
       </c>
     </row>
   </sheetData>

--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram2.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/bigram2.xlsx
@@ -593,85 +593,85 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.463509568602011E-3</v>
+        <v>2.463533540709122E-3</v>
       </c>
       <c r="D2">
-        <v>6.7580278949075584E-3</v>
+        <v>6.7580936564416777E-3</v>
       </c>
       <c r="E2">
-        <v>1.675640609795654E-2</v>
+        <v>1.6756569152473099E-2</v>
       </c>
       <c r="F2">
-        <v>3.689588063574441E-3</v>
+        <v>3.6896239664998358E-3</v>
       </c>
       <c r="G2">
-        <v>7.5024326954265322E-3</v>
+        <v>7.5025057006717546E-3</v>
       </c>
       <c r="H2">
-        <v>4.1388258190074604E-3</v>
+        <v>4.1388660934099262E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.1959130716834251E-3</v>
+        <v>2.1959344398420999E-3</v>
       </c>
       <c r="K2">
-        <v>4.3026273110606554E-3</v>
+        <v>4.3026691793951934E-3</v>
       </c>
       <c r="L2">
-        <v>1.153908530651962E-2</v>
+        <v>1.1539197591932461E-2</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>9.043139798897178E-3</v>
+        <v>9.0432277965727861E-3</v>
       </c>
       <c r="O2">
-        <v>2.666234187479727E-3</v>
+        <v>2.666260132275047E-3</v>
       </c>
       <c r="P2">
-        <v>6.1628284138825823E-3</v>
+        <v>6.1628883836041216E-3</v>
       </c>
       <c r="Q2">
-        <v>1.611903989620499E-2</v>
+        <v>1.6119196748589831E-2</v>
       </c>
       <c r="R2">
-        <v>1.022542977619202E-2</v>
+        <v>1.022552927858526E-2</v>
       </c>
       <c r="S2">
-        <v>1.487674343172235E-2</v>
+        <v>1.487688819547385E-2</v>
       </c>
       <c r="T2">
-        <v>3.673370094064223E-3</v>
+        <v>3.6734058391745621E-3</v>
       </c>
       <c r="U2">
-        <v>1.527894907557574E-2</v>
+        <v>1.527909775314064E-2</v>
       </c>
       <c r="V2">
-        <v>8.3895556276354193E-3</v>
+        <v>8.3896372653642429E-3</v>
       </c>
       <c r="W2">
-        <v>4.7324035030814138E-3</v>
+        <v>4.7324495535149549E-3</v>
       </c>
       <c r="X2">
-        <v>8.5468699318845282E-4</v>
+        <v>8.5469531004194008E-4</v>
       </c>
       <c r="Y2">
-        <v>1.4807006162828411E-3</v>
+        <v>1.480715024797517E-3</v>
       </c>
       <c r="Z2">
-        <v>2.8219266947778138E-4</v>
+        <v>2.8219541545976772E-4</v>
       </c>
       <c r="AA2">
-        <v>6.6023353876094714E-3</v>
+        <v>6.6023996341190473E-3</v>
       </c>
       <c r="AB2">
-        <v>5.7573791761271486E-4</v>
+        <v>5.7574352004722716E-4</v>
       </c>
       <c r="AC2">
-        <v>9.2442426208238726E-5</v>
+        <v>9.2443325754061837E-5</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.8527408368472268E-3</v>
+        <v>2.852768596515697E-3</v>
       </c>
       <c r="AH2">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="AI2">
-        <v>2.9938371715861169E-3</v>
+        <v>2.993866304245581E-3</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -697,88 +697,88 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.5744404800518971E-2</v>
+        <v>1.5744558007376001E-2</v>
       </c>
       <c r="C3">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="D3">
-        <v>3.5517353227375933E-4</v>
+        <v>3.5517698842350072E-4</v>
       </c>
       <c r="E3">
-        <v>3.2825170288679861E-3</v>
+        <v>3.2825489706354589E-3</v>
       </c>
       <c r="F3">
-        <v>9.3415504378851772E-4</v>
+        <v>9.3416413393578273E-4</v>
       </c>
       <c r="G3">
-        <v>1.775867661368797E-3</v>
+        <v>1.7758849421175039E-3</v>
       </c>
       <c r="H3">
-        <v>1.2958157638663639E-3</v>
+        <v>1.2958283732893931E-3</v>
       </c>
       <c r="I3">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="J3">
-        <v>1.8439831333117091E-3</v>
+        <v>1.844001076883654E-3</v>
       </c>
       <c r="K3">
-        <v>3.1949399935128119E-3</v>
+        <v>3.194971083078979E-3</v>
       </c>
       <c r="L3">
-        <v>3.1462860849821602E-4</v>
+        <v>3.1463167011031571E-4</v>
       </c>
       <c r="M3">
-        <v>7.9143691209860526E-4</v>
+        <v>7.9144461347337147E-4</v>
       </c>
       <c r="N3">
-        <v>5.2448913396042811E-3</v>
+        <v>5.2449423769936132E-3</v>
       </c>
       <c r="O3">
-        <v>7.8267920856308782E-3</v>
+        <v>7.8268682471772343E-3</v>
       </c>
       <c r="P3">
-        <v>3.1657476483944211E-3</v>
+        <v>3.1657784538934859E-3</v>
       </c>
       <c r="Q3">
-        <v>3.2208887447291602E-3</v>
+        <v>3.220920086799417E-3</v>
       </c>
       <c r="R3">
-        <v>2.432695426532598E-5</v>
+        <v>2.4327190987911009E-5</v>
       </c>
       <c r="S3">
-        <v>6.8439831333117092E-4</v>
+        <v>6.8440497312656306E-4</v>
       </c>
       <c r="T3">
-        <v>1.8310087577035361E-3</v>
+        <v>1.831026575023435E-3</v>
       </c>
       <c r="U3">
-        <v>5.0664936749918914E-3</v>
+        <v>5.0665429764155988E-3</v>
       </c>
       <c r="V3">
-        <v>3.7804086928316569E-3</v>
+        <v>3.78044547952137E-3</v>
       </c>
       <c r="W3">
-        <v>5.3519299383717158E-5</v>
+        <v>5.3519820173404223E-5</v>
       </c>
       <c r="X3">
-        <v>1.556925072980863E-4</v>
+        <v>1.5569402232263051E-4</v>
       </c>
       <c r="Y3">
-        <v>7.9954589685371394E-4</v>
+        <v>7.9955367713600844E-4</v>
       </c>
       <c r="Z3">
-        <v>3.0814142069412909E-5</v>
+        <v>3.081444191802061E-5</v>
       </c>
       <c r="AA3">
-        <v>8.1089847551086603E-4</v>
+        <v>8.1090636626370027E-4</v>
       </c>
       <c r="AB3">
-        <v>9.7307817061303926E-4</v>
+        <v>9.7308763951644032E-4</v>
       </c>
       <c r="AC3">
-        <v>1.962374310736296E-4</v>
+        <v>1.962393406358155E-4</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.0982808952319171E-4</v>
+        <v>9.0983694294787172E-4</v>
       </c>
       <c r="AI3">
-        <v>1.865066493674992E-3</v>
+        <v>1.8634628296739829E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -804,106 +804,106 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.8436587739215048E-4</v>
+        <v>3.8436961760899391E-4</v>
       </c>
       <c r="C4">
-        <v>5.4654557249432371E-4</v>
+        <v>5.4655089086173402E-4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.7032111579630233E-5</v>
+        <v>4.7032569243294618E-5</v>
       </c>
       <c r="F4">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="G4">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="H4">
-        <v>2.3921505027570552E-3</v>
+        <v>2.3921737804779158E-3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.8709049626986696E-4</v>
+        <v>5.8709620917491898E-4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.4333441453130067E-5</v>
+        <v>8.4334262091424826E-5</v>
       </c>
       <c r="O4">
-        <v>6.7628932857606225E-4</v>
+        <v>6.7629590946392598E-4</v>
       </c>
       <c r="P4">
-        <v>4.54103146286085E-5</v>
+        <v>4.5410756510767212E-5</v>
       </c>
       <c r="Q4">
-        <v>2.3029516704508601E-4</v>
+        <v>2.3029740801889091E-4</v>
       </c>
       <c r="R4">
-        <v>1.8293869607525139E-3</v>
+        <v>1.8294047622909081E-3</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9.1144988647421342E-4</v>
+        <v>9.1145875568039909E-4</v>
       </c>
       <c r="U4">
-        <v>1.8326305546545571E-4</v>
+        <v>1.8326483877559619E-4</v>
       </c>
       <c r="V4">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="W4">
-        <v>1.2163477132662991E-3</v>
+        <v>1.2163595493955501E-3</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.432695426532598E-5</v>
+        <v>2.4327190987911009E-5</v>
       </c>
       <c r="Z4">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AA4">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="AB4">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AC4">
-        <v>1.81641258514434E-4</v>
+        <v>1.8164302604306879E-4</v>
       </c>
       <c r="AD4">
-        <v>1.6704508595523839E-4</v>
+        <v>1.6704671145032231E-4</v>
       </c>
       <c r="AE4">
-        <v>3.9425883879338304E-3</v>
+        <v>3.9426267527741107E-3</v>
       </c>
       <c r="AF4">
-        <v>3.5679532922478108E-5</v>
+        <v>3.5679880115602808E-5</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AI4">
-        <v>4.7843010055141101E-4</v>
+        <v>4.7843475609558308E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -911,25 +911,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.1978592280246512E-3</v>
+        <v>5.1979098077503186E-3</v>
       </c>
       <c r="C5">
-        <v>5.8709049626986696E-3</v>
+        <v>5.8709620917491902E-3</v>
       </c>
       <c r="D5">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="E5">
-        <v>4.3788517677586773E-5</v>
+        <v>4.3788943778239812E-5</v>
       </c>
       <c r="F5">
-        <v>1.7677586766136881E-4</v>
+        <v>1.7677758784548659E-4</v>
       </c>
       <c r="G5">
-        <v>7.3467401881284467E-4</v>
+        <v>7.3468116783491247E-4</v>
       </c>
       <c r="H5">
-        <v>5.410314628608498E-3</v>
+        <v>5.4103672757114078E-3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -938,70 +938,70 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.1680181641258522E-4</v>
+        <v>4.1680587225954201E-4</v>
       </c>
       <c r="L5">
-        <v>3.167369445345443E-3</v>
+        <v>3.1674002666260128E-3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.248783652286734E-4</v>
+        <v>1.2487958040460981E-4</v>
       </c>
       <c r="O5">
-        <v>9.0496269867012646E-4</v>
+        <v>9.0497150475028949E-4</v>
       </c>
       <c r="P5">
-        <v>9.4064223159260466E-5</v>
+        <v>9.4065138486589236E-5</v>
       </c>
       <c r="Q5">
-        <v>1.6185533571196891E-3</v>
+        <v>1.618569107062346E-3</v>
       </c>
       <c r="R5">
-        <v>6.0055141096334742E-3</v>
+        <v>6.0055725485489639E-3</v>
       </c>
       <c r="S5">
-        <v>4.2166720726565042E-4</v>
+        <v>4.2167131045712407E-4</v>
       </c>
       <c r="T5">
-        <v>5.6438533895556277E-4</v>
+        <v>5.6439083091953533E-4</v>
       </c>
       <c r="U5">
-        <v>3.7641907233214398E-3</v>
+        <v>3.7642273521960971E-3</v>
       </c>
       <c r="V5">
-        <v>1.9461563412260781E-4</v>
+        <v>1.946175279032881E-4</v>
       </c>
       <c r="W5">
-        <v>4.8167369445345439E-4</v>
+        <v>4.8167838156063788E-4</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="Z5">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="AA5">
-        <v>1.2325656827765161E-4</v>
+        <v>1.2325776767208241E-4</v>
       </c>
       <c r="AB5">
-        <v>6.9412909503730131E-4</v>
+        <v>6.941358495217274E-4</v>
       </c>
       <c r="AC5">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="AD5">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AE5">
-        <v>3.1138501459617249E-3</v>
+        <v>3.1138804464526091E-3</v>
       </c>
       <c r="AF5">
-        <v>1.200129743756082E-4</v>
+        <v>1.200141422070276E-4</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.5244891339604279E-4</v>
+        <v>1.5245039685757571E-4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1018,25 +1018,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.4712941939669153E-4</v>
+        <v>9.4713863579600193E-4</v>
       </c>
       <c r="C6">
-        <v>1.112552708400908E-3</v>
+        <v>1.1125635345137969E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="F6">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="G6">
-        <v>1.050924424262082E-3</v>
+        <v>1.0509346506777551E-3</v>
       </c>
       <c r="H6">
-        <v>7.8819331819656184E-4</v>
+        <v>7.8820098800831662E-4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1048,43 +1048,43 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.0275705481673692E-4</v>
+        <v>5.0276194708349421E-4</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.9192345118391179E-5</v>
+        <v>2.919262918549321E-5</v>
       </c>
       <c r="O6">
-        <v>1.6509892961401229E-3</v>
+        <v>1.6510053617128941E-3</v>
       </c>
       <c r="P6">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="Q6">
-        <v>2.0921180668180339E-4</v>
+        <v>2.0921384249603469E-4</v>
       </c>
       <c r="R6">
-        <v>8.2225105416801822E-3</v>
+        <v>8.22259055391392E-3</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5.2221861822899769E-4</v>
+        <v>5.22223699873823E-4</v>
       </c>
       <c r="U6">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="V6">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="W6">
-        <v>3.9571845604930258E-4</v>
+        <v>3.9572230673668568E-4</v>
       </c>
       <c r="X6">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.7570548167369449E-5</v>
+        <v>2.7570816452965811E-5</v>
       </c>
       <c r="AB6">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1125,85 +1125,85 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.8494972429451831E-4</v>
+        <v>7.8495736254326188E-4</v>
       </c>
       <c r="C7">
-        <v>5.3811222834901067E-3</v>
+        <v>5.3811746465259151E-3</v>
       </c>
       <c r="D7">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="E7">
-        <v>6.6655854686993186E-4</v>
+        <v>6.6656503306876164E-4</v>
       </c>
       <c r="F7">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="G7">
-        <v>2.5948751216347709E-5</v>
+        <v>2.5949003720438412E-5</v>
       </c>
       <c r="H7">
-        <v>4.4323710671423941E-3</v>
+        <v>4.4324141979973858E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="K7">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="L7">
-        <v>2.2283490107038598E-3</v>
+        <v>2.2283706944926482E-3</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.4813493350632498E-4</v>
+        <v>2.4813734807669231E-4</v>
       </c>
       <c r="O7">
-        <v>5.7411612066169315E-4</v>
+        <v>5.7412170731469979E-4</v>
       </c>
       <c r="P7">
-        <v>4.7032111579630233E-5</v>
+        <v>4.7032569243294618E-5</v>
       </c>
       <c r="Q7">
-        <v>1.876419072332144E-3</v>
+        <v>1.8764373315342019E-3</v>
       </c>
       <c r="R7">
-        <v>3.8533895556276359E-3</v>
+        <v>3.853427052485103E-3</v>
       </c>
       <c r="S7">
-        <v>8.2711644502108341E-5</v>
+        <v>8.2712449358897426E-5</v>
       </c>
       <c r="T7">
-        <v>1.553681479078819E-3</v>
+        <v>1.55369659776125E-3</v>
       </c>
       <c r="U7">
-        <v>2.4813493350632498E-4</v>
+        <v>2.4813734807669231E-4</v>
       </c>
       <c r="V7">
-        <v>2.0434641582873819E-4</v>
+        <v>2.0434840429845249E-4</v>
       </c>
       <c r="W7">
-        <v>1.501783976646124E-3</v>
+        <v>1.501798590320373E-3</v>
       </c>
       <c r="X7">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="Y7">
-        <v>6.811547194291275E-5</v>
+        <v>6.8116134766150818E-5</v>
       </c>
       <c r="Z7">
-        <v>3.2760298410638988E-4</v>
+        <v>3.2760617197053491E-4</v>
       </c>
       <c r="AA7">
-        <v>5.5141096334738892E-5</v>
+        <v>5.5141632905931622E-5</v>
       </c>
       <c r="AB7">
-        <v>6.4871878040869283E-5</v>
+        <v>6.4872509301096019E-5</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>4.7356470969834582E-4</v>
+        <v>4.7356931789800102E-4</v>
       </c>
       <c r="AF7">
-        <v>8.7414855660071359E-4</v>
+        <v>8.7415706283226887E-4</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AI7">
-        <v>2.4489133960428161E-4</v>
+        <v>2.4489372261163751E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1232,88 +1232,88 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.8618228997729479E-2</v>
+        <v>1.8618410169414561E-2</v>
       </c>
       <c r="C8">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="D8">
-        <v>1.456373662017515E-3</v>
+        <v>1.456387833809606E-3</v>
       </c>
       <c r="E8">
-        <v>2.0434641582873819E-3</v>
+        <v>2.0434840429845252E-3</v>
       </c>
       <c r="F8">
-        <v>3.2208887447291602E-3</v>
+        <v>3.220920086799417E-3</v>
       </c>
       <c r="G8">
-        <v>2.8786895880635751E-3</v>
+        <v>2.8787176002361358E-3</v>
       </c>
       <c r="H8">
-        <v>1.5374635095686019E-3</v>
+        <v>1.5374784704359761E-3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.9737268893934484E-4</v>
+        <v>6.9737947498678225E-4</v>
       </c>
       <c r="K8">
-        <v>1.31041193642556E-3</v>
+        <v>1.3104246878821401E-3</v>
       </c>
       <c r="L8">
-        <v>1.200129743756082E-4</v>
+        <v>1.200141422070276E-4</v>
       </c>
       <c r="M8">
-        <v>2.1521245540058391E-3</v>
+        <v>2.15214549606386E-3</v>
       </c>
       <c r="N8">
-        <v>1.31041193642556E-3</v>
+        <v>1.3104246878821401E-3</v>
       </c>
       <c r="O8">
-        <v>5.1362309438858257E-3</v>
+        <v>5.1362809239142784E-3</v>
       </c>
       <c r="P8">
-        <v>4.2977619202075896E-3</v>
+        <v>4.2978037411976113E-3</v>
       </c>
       <c r="Q8">
-        <v>7.5948751216347709E-3</v>
+        <v>7.5949490264258174E-3</v>
       </c>
       <c r="R8">
-        <v>2.5948751216347708E-4</v>
+        <v>2.5949003720438407E-4</v>
       </c>
       <c r="S8">
-        <v>1.308790139474538E-3</v>
+        <v>1.308802875149612E-3</v>
       </c>
       <c r="T8">
-        <v>5.9487512163477136E-3</v>
+        <v>5.948809102910505E-3</v>
       </c>
       <c r="U8">
-        <v>4.200454103146286E-3</v>
+        <v>4.2004949772459672E-3</v>
       </c>
       <c r="V8">
-        <v>5.7752189425883879E-3</v>
+        <v>5.7752751405300744E-3</v>
       </c>
       <c r="W8">
-        <v>1.15147583522543E-4</v>
+        <v>1.151487040094454E-4</v>
       </c>
       <c r="X8">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="Y8">
-        <v>5.4654557249432371E-4</v>
+        <v>5.4655089086173402E-4</v>
       </c>
       <c r="Z8">
-        <v>3.5192993837171579E-4</v>
+        <v>3.5193336295844593E-4</v>
       </c>
       <c r="AA8">
-        <v>1.243918261433668E-3</v>
+        <v>1.2439303658485161E-3</v>
       </c>
       <c r="AB8">
-        <v>8.9198832306195265E-4</v>
+        <v>8.919970028900703E-4</v>
       </c>
       <c r="AC8">
-        <v>8.2225105416801813E-4</v>
+        <v>8.2225905539139209E-4</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>2.5462212131041189E-4</v>
+        <v>2.546245990068019E-4</v>
       </c>
       <c r="AI8">
-        <v>3.1138501459617248E-4</v>
+        <v>3.1138804464526091E-4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.5844956211482319E-4</v>
+        <v>6.5845596940612467E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="U9">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="V9">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1446,70 +1446,70 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.9464807006162825E-4</v>
+        <v>4.9465288342085713E-4</v>
       </c>
       <c r="C10">
-        <v>1.2990593577684071E-3</v>
+        <v>1.299071998754448E-3</v>
       </c>
       <c r="D10">
-        <v>4.7032111579630233E-5</v>
+        <v>4.7032569243294618E-5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="G10">
-        <v>7.9954589685371394E-4</v>
+        <v>7.9955367713600844E-4</v>
       </c>
       <c r="H10">
-        <v>4.805384365877392E-3</v>
+        <v>4.8054311264786884E-3</v>
       </c>
       <c r="I10">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="J10">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.334738890690885E-3</v>
+        <v>1.3347518788700511E-3</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.8653908530651959E-5</v>
+        <v>4.8654381975822017E-5</v>
       </c>
       <c r="O10">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="P10">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Q10">
-        <v>7.0710347064547522E-4</v>
+        <v>7.0711035138194659E-4</v>
       </c>
       <c r="R10">
-        <v>2.7570548167369449E-5</v>
+        <v>2.7570816452965811E-5</v>
       </c>
       <c r="S10">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="T10">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="U10">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="V10">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="W10">
-        <v>2.1407719753486861E-4</v>
+        <v>2.1407928069361689E-4</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1553,70 +1553,70 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.268245215698995E-3</v>
+        <v>1.2682575568364271E-3</v>
       </c>
       <c r="C11">
-        <v>4.7372688939344796E-3</v>
+        <v>4.737314991712537E-3</v>
       </c>
       <c r="D11">
-        <v>1.021732079143691E-4</v>
+        <v>1.0217420214922621E-4</v>
       </c>
       <c r="E11">
-        <v>9.2280246513136552E-4</v>
+        <v>9.2281144480809091E-4</v>
       </c>
       <c r="F11">
-        <v>3.584171261758028E-4</v>
+        <v>3.5842061388855552E-4</v>
       </c>
       <c r="G11">
-        <v>6.5844956211482319E-4</v>
+        <v>6.5845596940612467E-4</v>
       </c>
       <c r="H11">
-        <v>2.3191696399610769E-4</v>
+        <v>2.3191922075141831E-4</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.0006487187804077E-5</v>
+        <v>6.000707110351382E-5</v>
       </c>
       <c r="K11">
-        <v>5.0275705481673692E-5</v>
+        <v>5.0276194708349417E-5</v>
       </c>
       <c r="L11">
-        <v>3.4868634446967242E-4</v>
+        <v>3.4868973749339113E-4</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.054168018164126E-4</v>
+        <v>1.0541782761428101E-4</v>
       </c>
       <c r="O11">
-        <v>2.3516055789815109E-4</v>
+        <v>2.3516284621647311E-4</v>
       </c>
       <c r="P11">
-        <v>2.72461887771651E-4</v>
+        <v>2.7246453906460332E-4</v>
       </c>
       <c r="Q11">
-        <v>1.9007460265974699E-3</v>
+        <v>1.9007645225221129E-3</v>
       </c>
       <c r="R11">
-        <v>4.2166720726565042E-4</v>
+        <v>4.2167131045712407E-4</v>
       </c>
       <c r="S11">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="T11">
-        <v>1.8650664936749919E-4</v>
+        <v>1.865084642406511E-4</v>
       </c>
       <c r="U11">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="V11">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="W11">
-        <v>2.4489133960428161E-4</v>
+        <v>2.4489372261163751E-4</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1628,31 +1628,31 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="AB11">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>2.7570548167369449E-5</v>
+        <v>2.7570816452965811E-5</v>
       </c>
       <c r="AE11">
-        <v>2.9516704508595519E-4</v>
+        <v>2.9516991731998692E-4</v>
       </c>
       <c r="AF11">
-        <v>1.3266299059357771E-3</v>
+        <v>1.326642815207414E-3</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>1.5731430424910801E-4</v>
+        <v>1.5731583505515791E-4</v>
       </c>
       <c r="AI11">
-        <v>5.4005838469023675E-4</v>
+        <v>5.4006363993162442E-4</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1660,88 +1660,88 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.7302951670450858E-2</v>
+        <v>1.7303120043334841E-2</v>
       </c>
       <c r="C12">
-        <v>7.2980862795977942E-5</v>
+        <v>7.298157296373303E-5</v>
       </c>
       <c r="D12">
-        <v>5.8060330846578011E-4</v>
+        <v>5.8060895824480938E-4</v>
       </c>
       <c r="E12">
-        <v>2.2121310411936431E-3</v>
+        <v>2.212152567167374E-3</v>
       </c>
       <c r="F12">
-        <v>3.8274408044112882E-4</v>
+        <v>3.8274780487646649E-4</v>
       </c>
       <c r="G12">
-        <v>1.4807006162828411E-3</v>
+        <v>1.480715024797517E-3</v>
       </c>
       <c r="H12">
-        <v>1.6931560168666881E-3</v>
+        <v>1.693172492758606E-3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2.1407719753486861E-4</v>
+        <v>2.1407928069361689E-4</v>
       </c>
       <c r="K12">
-        <v>1.8066818034382091E-3</v>
+        <v>1.806699384035524E-3</v>
       </c>
       <c r="L12">
-        <v>5.7087252675964973E-4</v>
+        <v>5.7087808184964493E-4</v>
       </c>
       <c r="M12">
-        <v>1.0298410638988E-3</v>
+        <v>1.029851085154899E-3</v>
       </c>
       <c r="N12">
-        <v>1.410963347388907E-3</v>
+        <v>1.410977077298838E-3</v>
       </c>
       <c r="O12">
-        <v>5.2740836847226724E-3</v>
+        <v>5.2741350061791068E-3</v>
       </c>
       <c r="P12">
-        <v>2.362958157638663E-3</v>
+        <v>2.3629811512924231E-3</v>
       </c>
       <c r="Q12">
-        <v>3.1835874148556601E-3</v>
+        <v>3.183618393951287E-3</v>
       </c>
       <c r="R12">
-        <v>3.0814142069412911E-4</v>
+        <v>3.0814441918020611E-4</v>
       </c>
       <c r="S12">
-        <v>6.8764190723321445E-4</v>
+        <v>6.876485985916178E-4</v>
       </c>
       <c r="T12">
-        <v>4.0707103470645468E-4</v>
+        <v>4.0707499586437751E-4</v>
       </c>
       <c r="U12">
-        <v>2.0904962698670131E-3</v>
+        <v>2.090516612227819E-3</v>
       </c>
       <c r="V12">
-        <v>4.3074927019137203E-3</v>
+        <v>4.3075346175927764E-3</v>
       </c>
       <c r="W12">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="X12">
-        <v>2.9192345118391179E-5</v>
+        <v>2.919262918549321E-5</v>
       </c>
       <c r="Y12">
-        <v>1.2422964644826469E-3</v>
+        <v>1.2423085531159889E-3</v>
       </c>
       <c r="Z12">
-        <v>7.1683425235160561E-4</v>
+        <v>7.1684122777711105E-4</v>
       </c>
       <c r="AA12">
-        <v>1.5909828089523191E-3</v>
+        <v>1.59099829060938E-3</v>
       </c>
       <c r="AB12">
-        <v>5.7411612066169315E-4</v>
+        <v>5.7412170731469979E-4</v>
       </c>
       <c r="AC12">
-        <v>1.2974375608173859E-4</v>
+        <v>1.2974501860219201E-4</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>2.3678235484917291E-4</v>
+        <v>2.3678465894900051E-4</v>
       </c>
       <c r="AI12">
-        <v>1.12390528705806E-3</v>
+        <v>1.123916223641489E-3</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1767,25 +1767,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.8773921505027573E-3</v>
+        <v>5.8774493426792997E-3</v>
       </c>
       <c r="C13">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="D13">
-        <v>3.0814142069412909E-5</v>
+        <v>3.081444191802061E-5</v>
       </c>
       <c r="E13">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="F13">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="G13">
-        <v>2.2867337009406421E-4</v>
+        <v>2.2867559528636351E-4</v>
       </c>
       <c r="H13">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1794,40 +1794,40 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="L13">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>7.2980862795977942E-5</v>
+        <v>7.298157296373303E-5</v>
       </c>
       <c r="O13">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="P13">
-        <v>3.4057735971456368E-5</v>
+        <v>3.4058067383075409E-5</v>
       </c>
       <c r="Q13">
-        <v>4.8167369445345439E-4</v>
+        <v>4.8167838156063788E-4</v>
       </c>
       <c r="R13">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="S13">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>5.0924424262082388E-4</v>
+        <v>5.0924919801360381E-4</v>
       </c>
       <c r="V13">
-        <v>3.7787868958806358E-4</v>
+        <v>3.7788236667888432E-4</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="Z13">
-        <v>6.4871878040869283E-5</v>
+        <v>6.4872509301096019E-5</v>
       </c>
       <c r="AA13">
-        <v>1.7839766461239049E-4</v>
+        <v>1.7839940057801399E-4</v>
       </c>
       <c r="AB13">
-        <v>2.011028219266948E-4</v>
+        <v>2.0110477883339769E-4</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -1874,85 +1874,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.641582873824197E-3</v>
+        <v>4.6416280404934203E-3</v>
       </c>
       <c r="C14">
-        <v>6.1903989620499516E-3</v>
+        <v>6.1904592000570878E-3</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.508271164450211E-4</v>
+        <v>1.5082858412504831E-4</v>
       </c>
       <c r="F14">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="G14">
-        <v>3.0814142069412909E-5</v>
+        <v>3.081444191802061E-5</v>
       </c>
       <c r="H14">
-        <v>4.8978267920856311E-4</v>
+        <v>4.8978744522327491E-4</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="K14">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="L14">
-        <v>1.8618228997729479E-3</v>
+        <v>1.861841016941456E-3</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="O14">
-        <v>4.6221213104119372E-4</v>
+        <v>4.6221662877030909E-4</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2.278624716185534E-3</v>
+        <v>2.278646889200998E-3</v>
       </c>
       <c r="R14">
-        <v>7.6646123905287061E-3</v>
+        <v>7.6646869739244953E-3</v>
       </c>
       <c r="S14">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="T14">
-        <v>1.419072332144016E-3</v>
+        <v>1.419086140961476E-3</v>
       </c>
       <c r="U14">
-        <v>2.9354524813493348E-4</v>
+        <v>2.9354810458745949E-4</v>
       </c>
       <c r="V14">
-        <v>4.7843010055141101E-4</v>
+        <v>4.7843475609558308E-4</v>
       </c>
       <c r="W14">
-        <v>1.0168666882906261E-3</v>
+        <v>1.01687658329468E-3</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Z14">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -1981,73 +1981,73 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.8747972753811226E-3</v>
+        <v>6.8748641731836511E-3</v>
       </c>
       <c r="C15">
-        <v>5.6325008108984746E-3</v>
+        <v>5.6325556200676622E-3</v>
       </c>
       <c r="D15">
-        <v>3.4057735971456368E-5</v>
+        <v>3.4058067383075409E-5</v>
       </c>
       <c r="E15">
-        <v>2.9192345118391179E-5</v>
+        <v>2.919262918549321E-5</v>
       </c>
       <c r="F15">
-        <v>1.81641258514434E-4</v>
+        <v>1.8164302604306879E-4</v>
       </c>
       <c r="G15">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="H15">
-        <v>3.631203373337658E-3</v>
+        <v>3.63123870812885E-3</v>
       </c>
       <c r="I15">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="J15">
-        <v>2.9516704508595519E-4</v>
+        <v>2.9516991731998692E-4</v>
       </c>
       <c r="K15">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="L15">
-        <v>6.4385338955562756E-3</v>
+        <v>6.4385965481337801E-3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.270515731430425E-4</v>
+        <v>2.2705378255383611E-4</v>
       </c>
       <c r="O15">
-        <v>1.3785274083684721E-4</v>
+        <v>1.3785408226482901E-4</v>
       </c>
       <c r="P15">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="Q15">
-        <v>2.335387609471294E-4</v>
+        <v>2.3354103348394571E-4</v>
       </c>
       <c r="R15">
-        <v>4.9691858579305869E-3</v>
+        <v>4.9692342124639556E-3</v>
       </c>
       <c r="S15">
-        <v>5.1897502432695432E-5</v>
+        <v>5.1898007440876823E-5</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1.4774570223807979E-3</v>
+        <v>1.477471399332462E-3</v>
       </c>
       <c r="V15">
-        <v>5.8384690236782358E-5</v>
+        <v>5.8385258370986421E-5</v>
       </c>
       <c r="W15">
-        <v>1.3298734998378201E-3</v>
+        <v>1.329886440672469E-3</v>
       </c>
       <c r="X15">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2056,31 +2056,31 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>2.1245540058384689E-4</v>
+        <v>2.1245746796108949E-4</v>
       </c>
       <c r="AB15">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="AC15">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>6.4547518650664938E-4</v>
+        <v>6.4548146754590536E-4</v>
       </c>
       <c r="AF15">
-        <v>3.5549789166396369E-3</v>
+        <v>3.5550135097000622E-3</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>8.9198832306195265E-4</v>
+        <v>8.919970028900703E-4</v>
       </c>
       <c r="AI15">
-        <v>1.4385338955562759E-3</v>
+        <v>1.438547893751804E-3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2088,25 +2088,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.8138177100227045E-3</v>
+        <v>7.8138937453170153E-3</v>
       </c>
       <c r="C16">
-        <v>2.2380797924099901E-3</v>
+        <v>2.2381015708878129E-3</v>
       </c>
       <c r="D16">
-        <v>2.5948751216347709E-5</v>
+        <v>2.5949003720438412E-5</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7.4602659746999682E-5</v>
+        <v>7.4603385696260429E-5</v>
       </c>
       <c r="G16">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="H16">
-        <v>4.1404476159584824E-3</v>
+        <v>4.1404879061424536E-3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2115,70 +2115,70 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="L16">
-        <v>2.156989944858904E-3</v>
+        <v>2.157010934261443E-3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.3250081089847557E-5</v>
+        <v>6.3250696568568619E-5</v>
       </c>
       <c r="O16">
-        <v>1.054168018164126E-4</v>
+        <v>1.0541782761428101E-4</v>
       </c>
       <c r="P16">
-        <v>2.432695426532598E-5</v>
+        <v>2.4327190987911009E-5</v>
       </c>
       <c r="Q16">
-        <v>1.7418099253973399E-3</v>
+        <v>1.741826874734428E-3</v>
       </c>
       <c r="R16">
-        <v>3.6020110282192672E-3</v>
+        <v>3.602046078943356E-3</v>
       </c>
       <c r="S16">
-        <v>1.248783652286734E-4</v>
+        <v>1.2487958040460981E-4</v>
       </c>
       <c r="T16">
-        <v>6.0006487187804077E-5</v>
+        <v>6.000707110351382E-5</v>
       </c>
       <c r="U16">
-        <v>1.2650016217969509E-4</v>
+        <v>1.2650139313713721E-4</v>
       </c>
       <c r="V16">
-        <v>1.508271164450211E-4</v>
+        <v>1.5082858412504831E-4</v>
       </c>
       <c r="W16">
-        <v>2.281868310087577E-3</v>
+        <v>2.2818905146660519E-3</v>
       </c>
       <c r="X16">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AA16">
-        <v>6.4871878040869283E-5</v>
+        <v>6.4872509301096019E-5</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>8.4333441453130072E-4</v>
+        <v>8.4334262091424826E-4</v>
       </c>
       <c r="AF16">
-        <v>8.2711644502108341E-5</v>
+        <v>8.2712449358897426E-5</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>3.584171261758028E-4</v>
+        <v>3.5842061388855552E-4</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2195,106 +2195,106 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.386312033733377E-3</v>
+        <v>3.386344985517212E-3</v>
       </c>
       <c r="C17">
-        <v>1.0025948751216349E-2</v>
+        <v>1.0026046312484389E-2</v>
       </c>
       <c r="D17">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="E17">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="F17">
-        <v>3.7301329873499841E-5</v>
+        <v>3.7301692848130208E-5</v>
       </c>
       <c r="G17">
-        <v>3.0327602984106392E-4</v>
+        <v>3.0327898098262389E-4</v>
       </c>
       <c r="H17">
-        <v>1.121959130716834E-2</v>
+        <v>1.121970048362456E-2</v>
       </c>
       <c r="I17">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="J17">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="K17">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="L17">
-        <v>6.9218293869607534E-3</v>
+        <v>6.9218967424269457E-3</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.0327602984106392E-4</v>
+        <v>3.0327898098262389E-4</v>
       </c>
       <c r="O17">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.5867661368796629E-3</v>
+        <v>2.586791308381204E-3</v>
       </c>
       <c r="R17">
-        <v>1.0470321115796301E-2</v>
+        <v>1.04704230011969E-2</v>
       </c>
       <c r="S17">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="T17">
-        <v>9.4064223159260466E-5</v>
+        <v>9.4065138486589236E-5</v>
       </c>
       <c r="U17">
-        <v>2.7408368472267271E-4</v>
+        <v>2.740863517971307E-4</v>
       </c>
       <c r="V17">
-        <v>3.3733376581252032E-4</v>
+        <v>3.373370483656993E-4</v>
       </c>
       <c r="W17">
-        <v>2.236457995458969E-3</v>
+        <v>2.2364797581552851E-3</v>
       </c>
       <c r="X17">
-        <v>4.7032111579630233E-5</v>
+        <v>4.7032569243294618E-5</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1.7191047680830359E-4</v>
+        <v>1.719121496479045E-4</v>
       </c>
       <c r="AA17">
-        <v>2.9678884203697701E-4</v>
+        <v>2.9679173005251429E-4</v>
       </c>
       <c r="AB17">
-        <v>2.432695426532598E-5</v>
+        <v>2.4327190987911009E-5</v>
       </c>
       <c r="AC17">
-        <v>1.08660395718456E-4</v>
+        <v>1.086614530793358E-4</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>2.4894583198183588E-3</v>
+        <v>2.4894825444295599E-3</v>
       </c>
       <c r="AF17">
-        <v>1.086603957184561E-3</v>
+        <v>1.0866145307933579E-3</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>1.4920531949399939E-4</v>
+        <v>1.4920677139252091E-4</v>
       </c>
       <c r="AI17">
-        <v>3.431722348361985E-3</v>
+        <v>3.4317557420279789E-3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2302,88 +2302,88 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.469672397015894E-2</v>
+        <v>2.469696429092726E-2</v>
       </c>
       <c r="C18">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="D18">
-        <v>3.1771002270515728E-3</v>
+        <v>3.1771311430211779E-3</v>
       </c>
       <c r="E18">
-        <v>7.0937398637690562E-3</v>
+        <v>7.0938088920748498E-3</v>
       </c>
       <c r="F18">
-        <v>4.8686344469672394E-3</v>
+        <v>4.8686818230472568E-3</v>
       </c>
       <c r="G18">
-        <v>4.2458644177748948E-3</v>
+        <v>4.2459057337567354E-3</v>
       </c>
       <c r="H18">
-        <v>1.939669153421991E-3</v>
+        <v>1.9396880281027709E-3</v>
       </c>
       <c r="I18">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="J18">
-        <v>2.4537787868958811E-3</v>
+        <v>2.4538026643139569E-3</v>
       </c>
       <c r="K18">
-        <v>8.871229322088874E-4</v>
+        <v>8.8713156469248807E-4</v>
       </c>
       <c r="L18">
-        <v>7.4116120661693152E-4</v>
+        <v>7.4116841876502206E-4</v>
       </c>
       <c r="M18">
-        <v>2.8138177100227048E-3</v>
+        <v>2.81384509093504E-3</v>
       </c>
       <c r="N18">
-        <v>1.8001946156341231E-3</v>
+        <v>1.800212133105415E-3</v>
       </c>
       <c r="O18">
-        <v>5.126500162179695E-3</v>
+        <v>5.1265500475191133E-3</v>
       </c>
       <c r="P18">
-        <v>5.1378527408368476E-3</v>
+        <v>5.1379027366468049E-3</v>
       </c>
       <c r="Q18">
-        <v>5.4313979889717796E-3</v>
+        <v>5.4314508412342654E-3</v>
       </c>
       <c r="R18">
-        <v>1.8488485241647751E-4</v>
+        <v>1.848866515081237E-4</v>
       </c>
       <c r="S18">
-        <v>1.209860525462212E-3</v>
+        <v>1.209872298465441E-3</v>
       </c>
       <c r="T18">
-        <v>4.680506000648719E-3</v>
+        <v>4.6805515460740781E-3</v>
       </c>
       <c r="U18">
-        <v>5.5660071359065841E-3</v>
+        <v>5.5660612980340382E-3</v>
       </c>
       <c r="V18">
-        <v>6.3963671748297106E-3</v>
+        <v>6.3964294170880684E-3</v>
       </c>
       <c r="W18">
-        <v>1.167693804735647E-4</v>
+        <v>1.167705167419728E-4</v>
       </c>
       <c r="X18">
-        <v>3.1949399935128121E-4</v>
+        <v>3.1949710830789788E-4</v>
       </c>
       <c r="Y18">
-        <v>3.3571196886149861E-4</v>
+        <v>3.3571523563317188E-4</v>
       </c>
       <c r="Z18">
-        <v>1.3136555303276031E-4</v>
+        <v>1.3136683133471941E-4</v>
       </c>
       <c r="AA18">
-        <v>2.421342847875446E-3</v>
+        <v>2.421366409663409E-3</v>
       </c>
       <c r="AB18">
-        <v>8.303600389231268E-4</v>
+        <v>8.3036811905402906E-4</v>
       </c>
       <c r="AC18">
-        <v>2.0596821277975999E-4</v>
+        <v>2.0597021703097989E-4</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2395,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="AH18">
-        <v>6.1790463833927994E-4</v>
+        <v>6.179106510929396E-4</v>
       </c>
       <c r="AI18">
-        <v>5.5627635420045409E-4</v>
+        <v>5.5628176725689836E-4</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2409,10 +2409,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="C19">
-        <v>1.3152773272786251E-3</v>
+        <v>1.315290126079722E-3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.0694129095037302E-3</v>
+        <v>2.0678112339724362E-3</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2439,40 +2439,40 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.7359714563736621E-4</v>
+        <v>7.7360467341557005E-4</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.5141096334738892E-5</v>
+        <v>5.5141632905931622E-5</v>
       </c>
       <c r="O19">
-        <v>4.3626337982484589E-4</v>
+        <v>4.3626762504987081E-4</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.054168018164126E-4</v>
+        <v>1.0541782761428101E-4</v>
       </c>
       <c r="R19">
-        <v>8.8258190074602654E-3</v>
+        <v>8.825904890414113E-3</v>
       </c>
       <c r="S19">
-        <v>5.6438533895556277E-4</v>
+        <v>5.6439083091953533E-4</v>
       </c>
       <c r="T19">
-        <v>6.8407395394096656E-3</v>
+        <v>6.8408061058005754E-3</v>
       </c>
       <c r="U19">
-        <v>2.7570548167369449E-5</v>
+        <v>2.7570816452965811E-5</v>
       </c>
       <c r="V19">
-        <v>1.4109633473889069E-4</v>
+        <v>1.4109770772988381E-4</v>
       </c>
       <c r="W19">
-        <v>5.9195588712293221E-4</v>
+        <v>5.9196164737250121E-4</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2481,34 +2481,34 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="AA19">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="AB19">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AC19">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>1.9137204022056441E-4</v>
+        <v>1.913739024382333E-4</v>
       </c>
       <c r="AF19">
-        <v>5.3519299383717158E-5</v>
+        <v>5.3519820173404223E-5</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="AI19">
-        <v>4.9626986701264996E-4</v>
+        <v>4.9627469615338461E-4</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2516,106 +2516,106 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.8709049626986696E-4</v>
+        <v>5.8709620917491898E-4</v>
       </c>
       <c r="C20">
-        <v>6.6072007784625363E-3</v>
+        <v>6.6072650723166286E-3</v>
       </c>
       <c r="D20">
-        <v>1.200129743756082E-4</v>
+        <v>1.200141422070276E-4</v>
       </c>
       <c r="E20">
-        <v>3.6490431397988971E-4</v>
+        <v>3.6328605208613769E-4</v>
       </c>
       <c r="F20">
-        <v>1.4433992864093409E-4</v>
+        <v>1.4434133319493869E-4</v>
       </c>
       <c r="G20">
-        <v>6.8277651638014921E-4</v>
+        <v>6.8278316039403558E-4</v>
       </c>
       <c r="H20">
-        <v>5.0632500810898484E-3</v>
+        <v>5.0632993509505441E-3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.384041518001946E-4</v>
+        <v>2.3840647168152791E-4</v>
       </c>
       <c r="K20">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="L20">
-        <v>4.5264352903016539E-3</v>
+        <v>4.5264793364839752E-3</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.8001946156341231E-4</v>
+        <v>1.8002121331054139E-4</v>
       </c>
       <c r="O20">
-        <v>6.0006487187804077E-5</v>
+        <v>6.000707110351382E-5</v>
       </c>
       <c r="P20">
-        <v>2.2867337009406421E-4</v>
+        <v>2.2867559528636351E-4</v>
       </c>
       <c r="Q20">
-        <v>5.4654557249432371E-4</v>
+        <v>5.4655089086173402E-4</v>
       </c>
       <c r="R20">
-        <v>6.7174829711320154E-3</v>
+        <v>6.7175483381284934E-3</v>
       </c>
       <c r="S20">
-        <v>1.070385987674343E-4</v>
+        <v>1.070396403468084E-4</v>
       </c>
       <c r="T20">
-        <v>7.4602659746999682E-5</v>
+        <v>7.4603385696260429E-5</v>
       </c>
       <c r="U20">
-        <v>7.7846253649043135E-5</v>
+        <v>7.7847011161315228E-5</v>
       </c>
       <c r="V20">
-        <v>4.3464158287382423E-4</v>
+        <v>4.3464581231734332E-4</v>
       </c>
       <c r="W20">
-        <v>2.2656503405773598E-3</v>
+        <v>2.2656723873407791E-3</v>
       </c>
       <c r="X20">
-        <v>7.1359065844956216E-5</v>
+        <v>7.1359760231205617E-5</v>
       </c>
       <c r="Y20">
-        <v>5.0275705481673692E-5</v>
+        <v>5.0276194708349417E-5</v>
       </c>
       <c r="Z20">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="AA20">
-        <v>5.1897502432695432E-5</v>
+        <v>5.1898007440876823E-5</v>
       </c>
       <c r="AB20">
-        <v>3.0003243593902039E-4</v>
+        <v>3.0003535551756909E-4</v>
       </c>
       <c r="AC20">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>9.0658449562114828E-4</v>
+        <v>9.0659331748281686E-4</v>
       </c>
       <c r="AF20">
-        <v>9.0820629257216999E-4</v>
+        <v>9.0821513021534434E-4</v>
       </c>
       <c r="AG20">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AH20">
-        <v>1.9948102497567311E-4</v>
+        <v>1.994829661008703E-4</v>
       </c>
       <c r="AI20">
-        <v>9.9091793707427821E-4</v>
+        <v>9.9092757957424163E-4</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2623,106 +2623,106 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.551735322737593E-3</v>
+        <v>3.551769884235007E-3</v>
       </c>
       <c r="C21">
-        <v>1.9007460265974699E-3</v>
+        <v>1.9007645225221129E-3</v>
       </c>
       <c r="D21">
-        <v>5.3519299383717158E-5</v>
+        <v>5.3519820173404223E-5</v>
       </c>
       <c r="E21">
-        <v>1.2131041193642559E-3</v>
+        <v>1.213115923930496E-3</v>
       </c>
       <c r="F21">
-        <v>2.108336036328252E-5</v>
+        <v>2.108356552285621E-5</v>
       </c>
       <c r="G21">
-        <v>1.6380149205319489E-4</v>
+        <v>1.6380308598526751E-4</v>
       </c>
       <c r="H21">
-        <v>3.7041842361336362E-3</v>
+        <v>3.7042202810925831E-3</v>
       </c>
       <c r="I21">
-        <v>6.4871878040869281E-4</v>
+        <v>6.4872509301096021E-4</v>
       </c>
       <c r="J21">
-        <v>1.7839766461239051E-5</v>
+        <v>1.7839940057801401E-5</v>
       </c>
       <c r="K21">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="L21">
-        <v>1.263379824845929E-3</v>
+        <v>1.263392118638845E-3</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.3165747648394419E-3</v>
+        <v>3.3166070380185341E-3</v>
       </c>
       <c r="O21">
-        <v>2.8997729484268571E-3</v>
+        <v>2.8998011657589921E-3</v>
       </c>
       <c r="P21">
-        <v>1.130392474862147E-3</v>
+        <v>1.130403474571598E-3</v>
       </c>
       <c r="Q21">
-        <v>9.5199481024975678E-4</v>
+        <v>9.5200407399358416E-4</v>
       </c>
       <c r="R21">
-        <v>2.5591955887122931E-3</v>
+        <v>2.5592204919282378E-3</v>
       </c>
       <c r="S21">
-        <v>1.665585468699319E-3</v>
+        <v>1.66560167630564E-3</v>
       </c>
       <c r="T21">
-        <v>1.102821926694778E-4</v>
+        <v>1.102832658118632E-4</v>
       </c>
       <c r="U21">
-        <v>7.1845604930262732E-4</v>
+        <v>7.1846304050963842E-4</v>
       </c>
       <c r="V21">
-        <v>9.6610444372364577E-3</v>
+        <v>9.659516634933198E-3</v>
       </c>
       <c r="W21">
-        <v>5.3843658773921504E-4</v>
+        <v>5.3844182719909694E-4</v>
       </c>
       <c r="X21">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Y21">
-        <v>1.8488485241647751E-4</v>
+        <v>1.848866515081237E-4</v>
       </c>
       <c r="Z21">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="AA21">
-        <v>4.3950697372688942E-4</v>
+        <v>4.395112505149255E-4</v>
       </c>
       <c r="AB21">
-        <v>9.8929614012325658E-5</v>
+        <v>9.8930576684171434E-5</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="AE21">
-        <v>2.0434641582873819E-4</v>
+        <v>2.0434840429845249E-4</v>
       </c>
       <c r="AF21">
-        <v>3.211157963023029E-3</v>
+        <v>3.2111892104042532E-3</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>2.3678235484917291E-4</v>
+        <v>2.3678465894900051E-4</v>
       </c>
       <c r="AI21">
-        <v>3.7268893934479402E-3</v>
+        <v>3.7269256593479658E-3</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2730,106 +2730,106 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.6162828413882579E-3</v>
+        <v>5.6163374927423876E-3</v>
       </c>
       <c r="C22">
-        <v>5.8417126175802792E-3</v>
+        <v>5.8417694625636967E-3</v>
       </c>
       <c r="D22">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="E22">
-        <v>2.1910476808303602E-3</v>
+        <v>2.1910690016445182E-3</v>
       </c>
       <c r="F22">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="G22">
-        <v>7.6224456698021408E-5</v>
+        <v>7.6225198428787828E-5</v>
       </c>
       <c r="H22">
-        <v>5.5757379176127149E-3</v>
+        <v>5.5757921744292033E-3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="K22">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="L22">
-        <v>3.593902043464158E-3</v>
+        <v>3.59393701528072E-3</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.0814142069412911E-4</v>
+        <v>3.0814441918020611E-4</v>
       </c>
       <c r="O22">
-        <v>2.5300032435939017E-4</v>
+        <v>2.5300278627427448E-4</v>
       </c>
       <c r="P22">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="Q22">
-        <v>8.7090496269867017E-4</v>
+        <v>8.7091343736721413E-4</v>
       </c>
       <c r="R22">
-        <v>1.460265974699968E-2</v>
+        <v>1.460280184367671E-2</v>
       </c>
       <c r="S22">
-        <v>8.5955238404151807E-5</v>
+        <v>8.5956074823952225E-5</v>
       </c>
       <c r="T22">
-        <v>2.364579954589685E-3</v>
+        <v>2.3646029640249501E-3</v>
       </c>
       <c r="U22">
-        <v>1.050924424262082E-3</v>
+        <v>1.0509346506777551E-3</v>
       </c>
       <c r="V22">
-        <v>5.5141096334738892E-5</v>
+        <v>5.5141632905931622E-5</v>
       </c>
       <c r="W22">
-        <v>1.3752838144664289E-3</v>
+        <v>1.375297197183236E-3</v>
       </c>
       <c r="X22">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="Y22">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="Z22">
-        <v>5.3519299383717158E-5</v>
+        <v>5.3519820173404223E-5</v>
       </c>
       <c r="AA22">
-        <v>2.72461887771651E-4</v>
+        <v>2.7246453906460332E-4</v>
       </c>
       <c r="AB22">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AC22">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="AD22">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="AE22">
-        <v>1.119039896204995E-3</v>
+        <v>1.119050785443906E-3</v>
       </c>
       <c r="AF22">
-        <v>6.4288031138501458E-3</v>
+        <v>6.4288656717386159E-3</v>
       </c>
       <c r="AG22">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AH22">
-        <v>4.05449237755433E-5</v>
+        <v>4.0545318313185007E-5</v>
       </c>
       <c r="AI22">
-        <v>4.5248134933506318E-4</v>
+        <v>4.5248575237514469E-4</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2837,88 +2837,88 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.2455400583846903E-3</v>
+        <v>6.2456008329630193E-3</v>
       </c>
       <c r="C23">
-        <v>3.4057735971456368E-5</v>
+        <v>3.4058067383075409E-5</v>
       </c>
       <c r="D23">
-        <v>4.5085955238404152E-4</v>
+        <v>4.5086393964261737E-4</v>
       </c>
       <c r="E23">
-        <v>6.7466753162504054E-4</v>
+        <v>6.7467409673139861E-4</v>
       </c>
       <c r="F23">
-        <v>1.4206941290950371E-3</v>
+        <v>1.4207079536940029E-3</v>
       </c>
       <c r="G23">
-        <v>1.6185533571196891E-3</v>
+        <v>1.618569107062346E-3</v>
       </c>
       <c r="H23">
-        <v>1.5893610120012969E-4</v>
+        <v>1.5893764778768531E-4</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.574764839442102E-3</v>
+        <v>1.5747801632841061E-3</v>
       </c>
       <c r="K23">
-        <v>2.6759649691858581E-4</v>
+        <v>2.675991008670211E-4</v>
       </c>
       <c r="L23">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="M23">
-        <v>1.702886798572819E-4</v>
+        <v>1.7029033691537711E-4</v>
       </c>
       <c r="N23">
-        <v>5.4978916639636713E-4</v>
+        <v>5.4979451632678877E-4</v>
       </c>
       <c r="O23">
-        <v>1.0736295815763871E-3</v>
+        <v>1.0736400289331389E-3</v>
       </c>
       <c r="P23">
-        <v>1.3250081089847549E-3</v>
+        <v>1.325021002474886E-3</v>
       </c>
       <c r="Q23">
-        <v>1.735322737593253E-4</v>
+        <v>1.735339623804318E-4</v>
       </c>
       <c r="R23">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="S23">
-        <v>5.4330197859228028E-4</v>
+        <v>5.4330726539667917E-4</v>
       </c>
       <c r="T23">
-        <v>4.5734674018812842E-4</v>
+        <v>4.5735119057272702E-4</v>
       </c>
       <c r="U23">
-        <v>9.1307168342523513E-4</v>
+        <v>9.1308056841292646E-4</v>
       </c>
       <c r="V23">
-        <v>1.5066493674991889E-3</v>
+        <v>1.5066640285179549E-3</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Y23">
-        <v>3.1138501459617248E-4</v>
+        <v>3.1138804464526091E-4</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>7.7684073953940963E-4</v>
+        <v>7.768482988806248E-4</v>
       </c>
       <c r="AB23">
-        <v>5.3032760298410636E-4</v>
+        <v>5.3033276353645997E-4</v>
       </c>
       <c r="AC23">
-        <v>2.4651313655530332E-4</v>
+        <v>2.4651553534416488E-4</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="AH23">
-        <v>6.8439831333117092E-4</v>
+        <v>6.8440497312656306E-4</v>
       </c>
       <c r="AI23">
-        <v>2.432695426532598E-5</v>
+        <v>2.4327190987911009E-5</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2944,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="C24">
-        <v>1.8650664936749919E-4</v>
+        <v>1.865084642406511E-4</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.9354524813493348E-4</v>
+        <v>2.9354810458745949E-4</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.8167369445345439E-4</v>
+        <v>4.8167838156063788E-4</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2983,34 +2983,34 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="P24">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Q24">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="R24">
-        <v>7.9468050600064874E-5</v>
+        <v>7.9468823893842627E-5</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8.2711644502108341E-5</v>
+        <v>8.2712449358897426E-5</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="W24">
-        <v>4.54103146286085E-5</v>
+        <v>4.5410756510767212E-5</v>
       </c>
       <c r="X24">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AF24">
-        <v>2.4489133960428161E-4</v>
+        <v>2.4489372261163751E-4</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3051,16 +3051,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.645150827116445E-3</v>
+        <v>2.6451765667521898E-3</v>
       </c>
       <c r="C25">
-        <v>4.1193642555951992E-4</v>
+        <v>4.1194043406195968E-4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2.011028219266948E-4</v>
+        <v>2.0110477883339769E-4</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.1628284138825817E-5</v>
+        <v>6.162888383604122E-5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3081,40 +3081,40 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.167693804735647E-4</v>
+        <v>1.167705167419728E-4</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="O25">
-        <v>8.919883230619526E-5</v>
+        <v>8.9199700289007024E-5</v>
       </c>
       <c r="P25">
-        <v>5.0275705481673692E-5</v>
+        <v>5.0276194708349417E-5</v>
       </c>
       <c r="Q25">
-        <v>1.248783652286734E-4</v>
+        <v>1.2487958040460981E-4</v>
       </c>
       <c r="R25">
-        <v>2.2072656503405769E-3</v>
+        <v>2.2072871289697919E-3</v>
       </c>
       <c r="S25">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="T25">
-        <v>6.811547194291275E-5</v>
+        <v>6.8116134766150818E-5</v>
       </c>
       <c r="U25">
-        <v>3.4057735971456368E-5</v>
+        <v>3.4058067383075409E-5</v>
       </c>
       <c r="V25">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="W25">
-        <v>8.1089847551086601E-5</v>
+        <v>8.1090636626370027E-5</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.5734674018812842E-4</v>
+        <v>4.5735119057272702E-4</v>
       </c>
       <c r="C26">
-        <v>5.7735971456373658E-4</v>
+        <v>5.7736533277975464E-4</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6.4060979565358413E-4</v>
+        <v>6.4061602934832324E-4</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3188,28 +3188,28 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1.281219591307168E-4</v>
+        <v>1.2812320586966461E-4</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>5.8384690236782358E-5</v>
+        <v>5.8385258370986421E-5</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>2.0272461887771651E-4</v>
+        <v>2.0272659156592509E-4</v>
       </c>
       <c r="S26">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3218,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="W26">
-        <v>1.3785274083684721E-4</v>
+        <v>1.3785408226482901E-4</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>2.0596821277975999E-4</v>
+        <v>2.0597021703097989E-4</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.3950697372688942E-4</v>
+        <v>4.395112505149255E-4</v>
       </c>
       <c r="C27">
-        <v>2.7830035679532921E-3</v>
+        <v>2.7814088362844921E-3</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3.9328576062277014E-3</v>
+        <v>3.9328958763789456E-3</v>
       </c>
       <c r="I27">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3295,40 +3295,40 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1.626662341874797E-3</v>
+        <v>1.6266781707249831E-3</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2.5300032435939017E-4</v>
+        <v>2.5300278627427448E-4</v>
       </c>
       <c r="O27">
-        <v>2.5948751216347709E-5</v>
+        <v>2.5949003720438412E-5</v>
       </c>
       <c r="P27">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="Q27">
-        <v>8.8387933830684398E-4</v>
+        <v>8.8388793922743332E-4</v>
       </c>
       <c r="R27">
-        <v>5.5141096334738892E-5</v>
+        <v>5.5141632905931622E-5</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3.1138501459617248E-4</v>
+        <v>3.1138804464526091E-4</v>
       </c>
       <c r="U27">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="V27">
-        <v>4.5896853713915014E-3</v>
+        <v>4.5897300330525444E-3</v>
       </c>
       <c r="W27">
-        <v>6.3898799870256242E-4</v>
+        <v>6.3899421661579576E-4</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AB27">
-        <v>1.5731430424910801E-4</v>
+        <v>1.5731583505515791E-4</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>1.962374310736296E-4</v>
+        <v>1.962393406358155E-4</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3372,16 +3372,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7.1359065844956216E-5</v>
+        <v>7.1359760231205617E-5</v>
       </c>
       <c r="C28">
-        <v>8.2711644502108338E-4</v>
+        <v>8.2712449358897432E-4</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5.1897502432695432E-5</v>
+        <v>5.1898007440876823E-5</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2.0904962698670131E-3</v>
+        <v>2.090516612227819E-3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3402,40 +3402,40 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1.350956860201103E-3</v>
+        <v>1.350970006195325E-3</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4.995134609146935E-4</v>
+        <v>4.9951832161843936E-4</v>
       </c>
       <c r="O28">
-        <v>5.4654557249432371E-4</v>
+        <v>5.4655089086173402E-4</v>
       </c>
       <c r="P28">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="Q28">
-        <v>3.6490431397988971E-4</v>
+        <v>3.6490786481866512E-4</v>
       </c>
       <c r="R28">
-        <v>2.0272461887771651E-4</v>
+        <v>2.0272659156592509E-4</v>
       </c>
       <c r="S28">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="T28">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="W28">
-        <v>2.4002594875121631E-4</v>
+        <v>2.4002828441405531E-4</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -3462,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>4.4761595848199798E-4</v>
+        <v>4.4762031417756252E-4</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3479,10 +3479,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.2442426208238726E-5</v>
+        <v>9.2443325754061837E-5</v>
       </c>
       <c r="C29">
-        <v>2.6921829386960752E-4</v>
+        <v>2.6922091359954853E-4</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1.4482646772624071E-3</v>
+        <v>1.4482787701469691E-3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>4.492377554330198E-4</v>
+        <v>4.4924212691008989E-4</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5.1897502432695432E-5</v>
+        <v>5.1898007440876823E-5</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1.021732079143691E-4</v>
+        <v>1.0217420214922621E-4</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>1.946156341226078E-5</v>
+        <v>1.946175279032881E-5</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>5.3519299383717158E-5</v>
+        <v>5.3519820173404223E-5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AI30">
-        <v>2.1407719753486861E-4</v>
+        <v>2.1407928069361689E-4</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3693,88 +3693,88 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.5410314628608504E-3</v>
+        <v>4.5410756510767224E-3</v>
       </c>
       <c r="C31">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="D31">
-        <v>1.2325656827765161E-4</v>
+        <v>1.2325776767208241E-4</v>
       </c>
       <c r="E31">
-        <v>7.7846253649043135E-4</v>
+        <v>7.7847011161315228E-4</v>
       </c>
       <c r="F31">
-        <v>8.1089847551086601E-5</v>
+        <v>8.1090636626370027E-5</v>
       </c>
       <c r="G31">
-        <v>1.9137204022056441E-4</v>
+        <v>1.913739024382333E-4</v>
       </c>
       <c r="H31">
-        <v>5.7411612066169315E-4</v>
+        <v>5.7412170731469979E-4</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="K31">
-        <v>4.2166720726565027E-5</v>
+        <v>4.2167131045712413E-5</v>
       </c>
       <c r="L31">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="M31">
-        <v>1.2990593577684071E-3</v>
+        <v>1.299071998754448E-3</v>
       </c>
       <c r="N31">
-        <v>2.4651313655530332E-4</v>
+        <v>2.4651553534416488E-4</v>
       </c>
       <c r="O31">
-        <v>1.8893934479403179E-3</v>
+        <v>1.889411833394422E-3</v>
       </c>
       <c r="P31">
-        <v>9.4875121634771325E-4</v>
+        <v>9.487604485285293E-4</v>
       </c>
       <c r="Q31">
-        <v>2.6435290301654233E-4</v>
+        <v>2.643554754019663E-4</v>
       </c>
       <c r="R31">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="S31">
-        <v>6.4871878040869283E-5</v>
+        <v>6.4872509301096019E-5</v>
       </c>
       <c r="T31">
-        <v>1.9461563412260781E-4</v>
+        <v>1.946175279032881E-4</v>
       </c>
       <c r="U31">
-        <v>7.4116120661693152E-4</v>
+        <v>7.4116841876502206E-4</v>
       </c>
       <c r="V31">
-        <v>8.4495621148232244E-4</v>
+        <v>8.4496443364677563E-4</v>
       </c>
       <c r="W31">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>7.3791761271488809E-4</v>
+        <v>7.3792479329996721E-4</v>
       </c>
       <c r="Z31">
-        <v>3.4057735971456368E-5</v>
+        <v>3.4058067383075409E-5</v>
       </c>
       <c r="AA31">
-        <v>2.9841063898799867E-4</v>
+        <v>2.9841354278504172E-4</v>
       </c>
       <c r="AB31">
-        <v>4.2977619202075898E-4</v>
+        <v>4.2978037411976121E-4</v>
       </c>
       <c r="AC31">
-        <v>1.102821926694778E-4</v>
+        <v>1.102832658118632E-4</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3786,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3800,25 +3800,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.248783652286734E-2</v>
+        <v>1.248633622772846E-2</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1.005514109633474E-4</v>
+        <v>1.0055238941669881E-4</v>
       </c>
       <c r="E32">
-        <v>3.5679532922478108E-5</v>
+        <v>3.5679880115602808E-5</v>
       </c>
       <c r="F32">
-        <v>8.7577035355173533E-5</v>
+        <v>8.7577887556479625E-5</v>
       </c>
       <c r="G32">
-        <v>4.54103146286085E-5</v>
+        <v>4.5410756510767212E-5</v>
       </c>
       <c r="H32">
-        <v>6.0168666882906259E-4</v>
+        <v>6.0169252376766555E-4</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3827,61 +3827,61 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1.167693804735647E-4</v>
+        <v>1.167705167419728E-4</v>
       </c>
       <c r="L32">
-        <v>1.2650016217969509E-4</v>
+        <v>1.2650139313713721E-4</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1.237431073629582E-3</v>
+        <v>1.237443114918407E-3</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>2.838144664288031E-4</v>
+        <v>2.8381722819229509E-4</v>
       </c>
       <c r="Q32">
-        <v>1.3152773272786251E-3</v>
+        <v>1.315290126079722E-3</v>
       </c>
       <c r="R32">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="S32">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="T32">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="U32">
-        <v>9.5361660720077849E-4</v>
+        <v>9.5362588672611153E-4</v>
       </c>
       <c r="V32">
-        <v>2.189425883879338E-4</v>
+        <v>2.1894471889119909E-4</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>8.1089847551086604E-6</v>
+        <v>8.1090636626370023E-6</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>4.8653908530651959E-5</v>
+        <v>4.8654381975822017E-5</v>
       </c>
       <c r="AA32">
-        <v>8.7577035355173533E-5</v>
+        <v>8.7577887556479625E-5</v>
       </c>
       <c r="AB32">
-        <v>4.2328900421667207E-4</v>
+        <v>4.2329312318965161E-4</v>
       </c>
       <c r="AC32">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="AH32">
-        <v>3.3409017191047679E-4</v>
+        <v>3.340934229006445E-4</v>
       </c>
       <c r="AI32">
-        <v>3.8274408044112882E-4</v>
+        <v>3.8274780487646649E-4</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3907,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="F33">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="G33">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3934,49 +3934,49 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="N33">
-        <v>5.8384690236782358E-5</v>
+        <v>5.8385258370986421E-5</v>
       </c>
       <c r="O33">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="P33">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="Q33">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="V33">
-        <v>2.8884203697697049E-3</v>
+        <v>2.8884484766313E-3</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="Y33">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4014,22 +4014,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.2744080441128769E-3</v>
+        <v>3.274439906972822E-3</v>
       </c>
       <c r="C34">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="D34">
-        <v>4.2653259811871561E-4</v>
+        <v>4.2653674865470641E-4</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="G34">
-        <v>2.7732727862471619E-4</v>
+        <v>2.773299772621855E-4</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4038,64 +4038,64 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.6217969510217321E-5</v>
+        <v>1.6218127325274001E-5</v>
       </c>
       <c r="K34">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="L34">
-        <v>3.2435939020434641E-6</v>
+        <v>3.243625465054801E-6</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1.135257865715212E-5</v>
+        <v>1.13526891276918E-5</v>
       </c>
       <c r="O34">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="P34">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="Q34">
-        <v>4.3788517677586773E-5</v>
+        <v>4.3788943778239812E-5</v>
       </c>
       <c r="R34">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="S34">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="T34">
-        <v>5.5141096334738892E-5</v>
+        <v>5.5141632905931622E-5</v>
       </c>
       <c r="U34">
-        <v>2.1083360363282521E-4</v>
+        <v>2.1083565522856209E-4</v>
       </c>
       <c r="V34">
-        <v>3.0489782679208558E-4</v>
+        <v>3.0490079371515131E-4</v>
       </c>
       <c r="W34">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>4.8653908530651959E-6</v>
+        <v>4.8654381975822017E-6</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>1.3947453778786901E-4</v>
+        <v>1.3947589499735641E-4</v>
       </c>
       <c r="AB34">
-        <v>2.432695426532598E-5</v>
+        <v>2.4327190987911009E-5</v>
       </c>
       <c r="AC34">
-        <v>1.7677586766136881E-4</v>
+        <v>1.7677758784548659E-4</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>2.5948751216347709E-5</v>
+        <v>2.5949003720438412E-5</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -4121,67 +4121,67 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.221213104119364E-2</v>
+        <v>1.2212249875931331E-2</v>
       </c>
       <c r="C35">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="D35">
-        <v>9.7307817061303918E-6</v>
+        <v>9.7308763951644035E-6</v>
       </c>
       <c r="E35">
-        <v>2.4975673045734669E-4</v>
+        <v>2.4975916080921968E-4</v>
       </c>
       <c r="F35">
-        <v>6.0006487187804077E-5</v>
+        <v>6.000707110351382E-5</v>
       </c>
       <c r="G35">
-        <v>5.1248783652286731E-4</v>
+        <v>5.1249282347865855E-4</v>
       </c>
       <c r="H35">
-        <v>8.5955238404151807E-5</v>
+        <v>8.5956074823952225E-5</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.005514109633474E-4</v>
+        <v>1.0055238941669881E-4</v>
       </c>
       <c r="K35">
-        <v>1.918585793058709E-3</v>
+        <v>1.9186044625799151E-3</v>
       </c>
       <c r="L35">
-        <v>1.297437560817386E-5</v>
+        <v>1.2974501860219201E-5</v>
       </c>
       <c r="M35">
-        <v>2.270515731430425E-5</v>
+        <v>2.2705378255383609E-5</v>
       </c>
       <c r="N35">
-        <v>2.011028219266948E-4</v>
+        <v>2.0110477883339769E-4</v>
       </c>
       <c r="O35">
-        <v>8.1900746026597471E-4</v>
+        <v>8.1901542992633724E-4</v>
       </c>
       <c r="P35">
-        <v>2.9678884203697701E-4</v>
+        <v>2.9679173005251429E-4</v>
       </c>
       <c r="Q35">
-        <v>5.2870580603308465E-4</v>
+        <v>5.287109508039326E-4</v>
       </c>
       <c r="R35">
-        <v>1.4596172559195589E-5</v>
+        <v>1.459631459274661E-5</v>
       </c>
       <c r="S35">
-        <v>3.0814142069412909E-5</v>
+        <v>3.081444191802061E-5</v>
       </c>
       <c r="T35">
-        <v>3.7301329873499841E-5</v>
+        <v>3.7301692848130208E-5</v>
       </c>
       <c r="U35">
-        <v>5.1573143042491084E-4</v>
+        <v>5.1573644894371341E-4</v>
       </c>
       <c r="V35">
-        <v>1.5309763217645151E-3</v>
+        <v>1.530991219505866E-3</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -4190,19 +4190,19 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1.475835225429776E-4</v>
+        <v>1.4758495865999351E-4</v>
       </c>
       <c r="Z35">
-        <v>6.649367499189101E-5</v>
+        <v>6.6494322033623418E-5</v>
       </c>
       <c r="AA35">
-        <v>1.881284463185209E-4</v>
+        <v>1.881302769731785E-4</v>
       </c>
       <c r="AB35">
-        <v>6.4871878040869282E-6</v>
+        <v>6.487250930109602E-6</v>
       </c>
       <c r="AC35">
-        <v>1.2974375608173859E-4</v>
+        <v>1.2974501860219201E-4</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>1.621796951021732E-6</v>
+        <v>1.6218127325274009E-6</v>
       </c>
       <c r="AH35">
-        <v>1.3460914693480381E-4</v>
+        <v>1.3461045679977421E-4</v>
       </c>
       <c r="AI35">
-        <v>7.7846253649043135E-5</v>
+        <v>7.7847011161315228E-5</v>
       </c>
     </row>
   </sheetData>
